--- a/2018/CRM/03_DetailDesign/CRMF2083_Cập nhật xử lý công việc.xlsx
+++ b/2018/CRM/03_DetailDesign/CRMF2083_Cập nhật xử lý công việc.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="836" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="836" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Coverpage" sheetId="20" r:id="rId1"/>
@@ -3059,75 +3059,117 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="24" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="24" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3137,48 +3179,6 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3269,26 +3269,38 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3298,18 +3310,6 @@
     </xf>
     <xf numFmtId="14" fontId="11" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3791,7 +3791,7 @@
                 <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
                 <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
               </a:rPr>
-              <a:t>00ML000001</a:t>
+              <a:t>00ML000039</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -6131,65 +6131,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="27" customHeight="1">
-      <c r="A1" s="175"/>
-      <c r="B1" s="175"/>
-      <c r="C1" s="177" t="s">
+      <c r="A1" s="169"/>
+      <c r="B1" s="169"/>
+      <c r="C1" s="171" t="s">
         <v>151</v>
       </c>
-      <c r="D1" s="178"/>
-      <c r="E1" s="178"/>
-      <c r="F1" s="179"/>
-      <c r="G1" s="176" t="s">
+      <c r="D1" s="172"/>
+      <c r="E1" s="172"/>
+      <c r="F1" s="173"/>
+      <c r="G1" s="170" t="s">
         <v>147</v>
       </c>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176" t="s">
+      <c r="H1" s="170"/>
+      <c r="I1" s="170" t="s">
         <v>148</v>
       </c>
-      <c r="J1" s="176"/>
+      <c r="J1" s="170"/>
     </row>
     <row r="2" spans="1:18" ht="23.25" customHeight="1">
-      <c r="A2" s="175"/>
-      <c r="B2" s="175"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="181"/>
-      <c r="E2" s="181"/>
-      <c r="F2" s="182"/>
-      <c r="G2" s="176" t="s">
+      <c r="A2" s="169"/>
+      <c r="B2" s="169"/>
+      <c r="C2" s="174"/>
+      <c r="D2" s="175"/>
+      <c r="E2" s="175"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="170" t="s">
         <v>149</v>
       </c>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
-      <c r="J2" s="176"/>
+      <c r="H2" s="170"/>
+      <c r="I2" s="170"/>
+      <c r="J2" s="170"/>
     </row>
     <row r="3" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A3" s="175"/>
-      <c r="B3" s="175"/>
-      <c r="C3" s="183"/>
-      <c r="D3" s="184"/>
-      <c r="E3" s="184"/>
-      <c r="F3" s="185"/>
-      <c r="G3" s="172" t="s">
+      <c r="A3" s="169"/>
+      <c r="B3" s="169"/>
+      <c r="C3" s="177"/>
+      <c r="D3" s="178"/>
+      <c r="E3" s="178"/>
+      <c r="F3" s="179"/>
+      <c r="G3" s="166" t="s">
         <v>150</v>
       </c>
-      <c r="H3" s="173"/>
-      <c r="I3" s="172"/>
-      <c r="J3" s="173"/>
+      <c r="H3" s="167"/>
+      <c r="I3" s="166"/>
+      <c r="J3" s="167"/>
     </row>
     <row r="4" spans="1:18">
       <c r="H4" s="92"/>
     </row>
     <row r="13" spans="1:18" ht="30">
-      <c r="A13" s="174"/>
-      <c r="B13" s="174"/>
-      <c r="C13" s="174"/>
-      <c r="D13" s="174"/>
-      <c r="E13" s="174"/>
-      <c r="F13" s="174"/>
-      <c r="G13" s="174"/>
-      <c r="H13" s="174"/>
-      <c r="I13" s="174"/>
-      <c r="J13" s="174"/>
+      <c r="A13" s="168"/>
+      <c r="B13" s="168"/>
+      <c r="C13" s="168"/>
+      <c r="D13" s="168"/>
+      <c r="E13" s="168"/>
+      <c r="F13" s="168"/>
+      <c r="G13" s="168"/>
+      <c r="H13" s="168"/>
+      <c r="I13" s="168"/>
+      <c r="J13" s="168"/>
       <c r="K13" s="93"/>
       <c r="L13" s="93"/>
       <c r="M13" s="93"/>
@@ -6200,56 +6200,56 @@
       <c r="R13" s="93"/>
     </row>
     <row r="14" spans="1:18" ht="26.25">
-      <c r="B14" s="168"/>
-      <c r="C14" s="168"/>
-      <c r="D14" s="168"/>
-      <c r="E14" s="168"/>
-      <c r="F14" s="168"/>
-      <c r="G14" s="168"/>
-      <c r="H14" s="168"/>
-      <c r="I14" s="168"/>
-      <c r="J14" s="168"/>
-      <c r="K14" s="168"/>
-      <c r="L14" s="168"/>
-      <c r="M14" s="168"/>
-      <c r="N14" s="168"/>
-      <c r="O14" s="168"/>
-      <c r="P14" s="168"/>
-      <c r="Q14" s="168"/>
-      <c r="R14" s="168"/>
+      <c r="B14" s="164"/>
+      <c r="C14" s="164"/>
+      <c r="D14" s="164"/>
+      <c r="E14" s="164"/>
+      <c r="F14" s="164"/>
+      <c r="G14" s="164"/>
+      <c r="H14" s="164"/>
+      <c r="I14" s="164"/>
+      <c r="J14" s="164"/>
+      <c r="K14" s="164"/>
+      <c r="L14" s="164"/>
+      <c r="M14" s="164"/>
+      <c r="N14" s="164"/>
+      <c r="O14" s="164"/>
+      <c r="P14" s="164"/>
+      <c r="Q14" s="164"/>
+      <c r="R14" s="164"/>
     </row>
     <row r="15" spans="1:18" ht="26.25">
-      <c r="B15" s="168"/>
-      <c r="C15" s="168"/>
-      <c r="D15" s="168"/>
-      <c r="E15" s="168"/>
-      <c r="F15" s="168"/>
-      <c r="G15" s="168"/>
-      <c r="H15" s="168"/>
-      <c r="I15" s="168"/>
-      <c r="J15" s="168"/>
-      <c r="K15" s="168"/>
-      <c r="L15" s="168"/>
-      <c r="M15" s="168"/>
-      <c r="N15" s="168"/>
-      <c r="O15" s="168"/>
-      <c r="P15" s="168"/>
-      <c r="Q15" s="168"/>
-      <c r="R15" s="168"/>
+      <c r="B15" s="164"/>
+      <c r="C15" s="164"/>
+      <c r="D15" s="164"/>
+      <c r="E15" s="164"/>
+      <c r="F15" s="164"/>
+      <c r="G15" s="164"/>
+      <c r="H15" s="164"/>
+      <c r="I15" s="164"/>
+      <c r="J15" s="164"/>
+      <c r="K15" s="164"/>
+      <c r="L15" s="164"/>
+      <c r="M15" s="164"/>
+      <c r="N15" s="164"/>
+      <c r="O15" s="164"/>
+      <c r="P15" s="164"/>
+      <c r="Q15" s="164"/>
+      <c r="R15" s="164"/>
     </row>
     <row r="16" spans="1:18" ht="26.25">
-      <c r="A16" s="171" t="s">
+      <c r="A16" s="165" t="s">
         <v>151</v>
       </c>
-      <c r="B16" s="171"/>
-      <c r="C16" s="171"/>
-      <c r="D16" s="171"/>
-      <c r="E16" s="171"/>
-      <c r="F16" s="171"/>
-      <c r="G16" s="171"/>
-      <c r="H16" s="171"/>
-      <c r="I16" s="171"/>
-      <c r="J16" s="171"/>
+      <c r="B16" s="165"/>
+      <c r="C16" s="165"/>
+      <c r="D16" s="165"/>
+      <c r="E16" s="165"/>
+      <c r="F16" s="165"/>
+      <c r="G16" s="165"/>
+      <c r="H16" s="165"/>
+      <c r="I16" s="165"/>
+      <c r="J16" s="165"/>
       <c r="K16" s="94"/>
       <c r="L16" s="94"/>
       <c r="M16" s="94"/>
@@ -6260,384 +6260,384 @@
       <c r="R16" s="94"/>
     </row>
     <row r="17" spans="1:195" ht="14.1" customHeight="1">
-      <c r="B17" s="168"/>
-      <c r="C17" s="168"/>
-      <c r="D17" s="168"/>
-      <c r="E17" s="168"/>
-      <c r="F17" s="168"/>
-      <c r="G17" s="168"/>
-      <c r="H17" s="168"/>
-      <c r="I17" s="168"/>
-      <c r="J17" s="168"/>
-      <c r="K17" s="168"/>
-      <c r="L17" s="168"/>
-      <c r="M17" s="168"/>
-      <c r="N17" s="168"/>
-      <c r="O17" s="168"/>
-      <c r="P17" s="168"/>
-      <c r="Q17" s="168"/>
-      <c r="R17" s="168"/>
+      <c r="B17" s="164"/>
+      <c r="C17" s="164"/>
+      <c r="D17" s="164"/>
+      <c r="E17" s="164"/>
+      <c r="F17" s="164"/>
+      <c r="G17" s="164"/>
+      <c r="H17" s="164"/>
+      <c r="I17" s="164"/>
+      <c r="J17" s="164"/>
+      <c r="K17" s="164"/>
+      <c r="L17" s="164"/>
+      <c r="M17" s="164"/>
+      <c r="N17" s="164"/>
+      <c r="O17" s="164"/>
+      <c r="P17" s="164"/>
+      <c r="Q17" s="164"/>
+      <c r="R17" s="164"/>
     </row>
     <row r="18" spans="1:195" ht="26.25">
-      <c r="B18" s="168"/>
-      <c r="C18" s="168"/>
-      <c r="D18" s="168"/>
-      <c r="E18" s="168"/>
-      <c r="F18" s="168"/>
-      <c r="G18" s="168"/>
-      <c r="H18" s="168"/>
-      <c r="I18" s="168"/>
-      <c r="J18" s="168"/>
-      <c r="K18" s="168"/>
-      <c r="L18" s="168"/>
-      <c r="M18" s="168"/>
-      <c r="N18" s="168"/>
-      <c r="O18" s="168"/>
-      <c r="P18" s="168"/>
-      <c r="Q18" s="168"/>
-      <c r="R18" s="168"/>
+      <c r="B18" s="164"/>
+      <c r="C18" s="164"/>
+      <c r="D18" s="164"/>
+      <c r="E18" s="164"/>
+      <c r="F18" s="164"/>
+      <c r="G18" s="164"/>
+      <c r="H18" s="164"/>
+      <c r="I18" s="164"/>
+      <c r="J18" s="164"/>
+      <c r="K18" s="164"/>
+      <c r="L18" s="164"/>
+      <c r="M18" s="164"/>
+      <c r="N18" s="164"/>
+      <c r="O18" s="164"/>
+      <c r="P18" s="164"/>
+      <c r="Q18" s="164"/>
+      <c r="R18" s="164"/>
     </row>
     <row r="19" spans="1:195" ht="23.25">
-      <c r="B19" s="170"/>
-      <c r="C19" s="170"/>
-      <c r="D19" s="170"/>
-      <c r="E19" s="170"/>
-      <c r="F19" s="170"/>
-      <c r="G19" s="170"/>
-      <c r="H19" s="170"/>
-      <c r="I19" s="170"/>
-      <c r="J19" s="170"/>
-      <c r="K19" s="170"/>
-      <c r="L19" s="170"/>
-      <c r="M19" s="170"/>
-      <c r="N19" s="170"/>
-      <c r="O19" s="170"/>
-      <c r="P19" s="170"/>
-      <c r="Q19" s="170"/>
-      <c r="R19" s="170"/>
+      <c r="B19" s="181"/>
+      <c r="C19" s="181"/>
+      <c r="D19" s="181"/>
+      <c r="E19" s="181"/>
+      <c r="F19" s="181"/>
+      <c r="G19" s="181"/>
+      <c r="H19" s="181"/>
+      <c r="I19" s="181"/>
+      <c r="J19" s="181"/>
+      <c r="K19" s="181"/>
+      <c r="L19" s="181"/>
+      <c r="M19" s="181"/>
+      <c r="N19" s="181"/>
+      <c r="O19" s="181"/>
+      <c r="P19" s="181"/>
+      <c r="Q19" s="181"/>
+      <c r="R19" s="181"/>
     </row>
     <row r="20" spans="1:195" ht="26.25">
-      <c r="B20" s="168"/>
-      <c r="C20" s="168"/>
-      <c r="D20" s="168"/>
-      <c r="E20" s="168"/>
-      <c r="F20" s="168"/>
-      <c r="G20" s="168"/>
-      <c r="H20" s="168"/>
-      <c r="I20" s="168"/>
-      <c r="J20" s="168"/>
-      <c r="K20" s="168"/>
-      <c r="L20" s="168"/>
-      <c r="M20" s="168"/>
-      <c r="N20" s="168"/>
-      <c r="O20" s="168"/>
-      <c r="P20" s="168"/>
-      <c r="Q20" s="168"/>
-      <c r="R20" s="168"/>
+      <c r="B20" s="164"/>
+      <c r="C20" s="164"/>
+      <c r="D20" s="164"/>
+      <c r="E20" s="164"/>
+      <c r="F20" s="164"/>
+      <c r="G20" s="164"/>
+      <c r="H20" s="164"/>
+      <c r="I20" s="164"/>
+      <c r="J20" s="164"/>
+      <c r="K20" s="164"/>
+      <c r="L20" s="164"/>
+      <c r="M20" s="164"/>
+      <c r="N20" s="164"/>
+      <c r="O20" s="164"/>
+      <c r="P20" s="164"/>
+      <c r="Q20" s="164"/>
+      <c r="R20" s="164"/>
     </row>
     <row r="21" spans="1:195" ht="26.25">
-      <c r="B21" s="168"/>
-      <c r="C21" s="168"/>
-      <c r="D21" s="168"/>
-      <c r="E21" s="168"/>
-      <c r="F21" s="168"/>
-      <c r="G21" s="168"/>
-      <c r="H21" s="168"/>
-      <c r="I21" s="168"/>
-      <c r="J21" s="168"/>
-      <c r="K21" s="168"/>
-      <c r="L21" s="168"/>
-      <c r="M21" s="168"/>
-      <c r="N21" s="168"/>
-      <c r="O21" s="168"/>
-      <c r="P21" s="168"/>
-      <c r="Q21" s="168"/>
-      <c r="R21" s="168"/>
+      <c r="B21" s="164"/>
+      <c r="C21" s="164"/>
+      <c r="D21" s="164"/>
+      <c r="E21" s="164"/>
+      <c r="F21" s="164"/>
+      <c r="G21" s="164"/>
+      <c r="H21" s="164"/>
+      <c r="I21" s="164"/>
+      <c r="J21" s="164"/>
+      <c r="K21" s="164"/>
+      <c r="L21" s="164"/>
+      <c r="M21" s="164"/>
+      <c r="N21" s="164"/>
+      <c r="O21" s="164"/>
+      <c r="P21" s="164"/>
+      <c r="Q21" s="164"/>
+      <c r="R21" s="164"/>
     </row>
     <row r="22" spans="1:195" ht="25.5">
-      <c r="B22" s="169"/>
-      <c r="C22" s="169"/>
-      <c r="D22" s="169"/>
-      <c r="E22" s="169"/>
-      <c r="F22" s="169"/>
-      <c r="G22" s="169"/>
-      <c r="H22" s="169"/>
-      <c r="I22" s="169"/>
-      <c r="J22" s="169"/>
-      <c r="K22" s="169"/>
-      <c r="L22" s="169"/>
-      <c r="M22" s="169"/>
-      <c r="N22" s="169"/>
-      <c r="O22" s="169"/>
-      <c r="P22" s="169"/>
-      <c r="Q22" s="169"/>
-      <c r="R22" s="169"/>
+      <c r="B22" s="180"/>
+      <c r="C22" s="180"/>
+      <c r="D22" s="180"/>
+      <c r="E22" s="180"/>
+      <c r="F22" s="180"/>
+      <c r="G22" s="180"/>
+      <c r="H22" s="180"/>
+      <c r="I22" s="180"/>
+      <c r="J22" s="180"/>
+      <c r="K22" s="180"/>
+      <c r="L22" s="180"/>
+      <c r="M22" s="180"/>
+      <c r="N22" s="180"/>
+      <c r="O22" s="180"/>
+      <c r="P22" s="180"/>
+      <c r="Q22" s="180"/>
+      <c r="R22" s="180"/>
     </row>
     <row r="23" spans="1:195" ht="25.5">
-      <c r="B23" s="169"/>
-      <c r="C23" s="169"/>
-      <c r="D23" s="169"/>
-      <c r="E23" s="169"/>
-      <c r="F23" s="169"/>
-      <c r="G23" s="169"/>
-      <c r="H23" s="169"/>
-      <c r="I23" s="169"/>
-      <c r="J23" s="169"/>
-      <c r="K23" s="169"/>
-      <c r="L23" s="169"/>
-      <c r="M23" s="169"/>
-      <c r="N23" s="169"/>
-      <c r="O23" s="169"/>
-      <c r="P23" s="169"/>
-      <c r="Q23" s="169"/>
-      <c r="R23" s="169"/>
+      <c r="B23" s="180"/>
+      <c r="C23" s="180"/>
+      <c r="D23" s="180"/>
+      <c r="E23" s="180"/>
+      <c r="F23" s="180"/>
+      <c r="G23" s="180"/>
+      <c r="H23" s="180"/>
+      <c r="I23" s="180"/>
+      <c r="J23" s="180"/>
+      <c r="K23" s="180"/>
+      <c r="L23" s="180"/>
+      <c r="M23" s="180"/>
+      <c r="N23" s="180"/>
+      <c r="O23" s="180"/>
+      <c r="P23" s="180"/>
+      <c r="Q23" s="180"/>
+      <c r="R23" s="180"/>
     </row>
     <row r="25" spans="1:195" ht="11.25" customHeight="1"/>
     <row r="26" spans="1:195" ht="18">
-      <c r="B26" s="166"/>
-      <c r="C26" s="166"/>
-      <c r="D26" s="166"/>
-      <c r="E26" s="166"/>
-      <c r="F26" s="166"/>
-      <c r="G26" s="166"/>
-      <c r="H26" s="166"/>
-      <c r="I26" s="166"/>
-      <c r="J26" s="166"/>
-      <c r="K26" s="166"/>
-      <c r="L26" s="166"/>
-      <c r="M26" s="166"/>
-      <c r="N26" s="166"/>
-      <c r="O26" s="166"/>
-      <c r="P26" s="166"/>
-      <c r="Q26" s="166"/>
-      <c r="R26" s="166"/>
+      <c r="B26" s="182"/>
+      <c r="C26" s="182"/>
+      <c r="D26" s="182"/>
+      <c r="E26" s="182"/>
+      <c r="F26" s="182"/>
+      <c r="G26" s="182"/>
+      <c r="H26" s="182"/>
+      <c r="I26" s="182"/>
+      <c r="J26" s="182"/>
+      <c r="K26" s="182"/>
+      <c r="L26" s="182"/>
+      <c r="M26" s="182"/>
+      <c r="N26" s="182"/>
+      <c r="O26" s="182"/>
+      <c r="P26" s="182"/>
+      <c r="Q26" s="182"/>
+      <c r="R26" s="182"/>
     </row>
     <row r="28" spans="1:195" ht="18">
-      <c r="B28" s="167"/>
-      <c r="C28" s="167"/>
-      <c r="D28" s="167"/>
-      <c r="E28" s="167"/>
-      <c r="F28" s="167"/>
-      <c r="G28" s="167"/>
-      <c r="H28" s="167"/>
-      <c r="I28" s="167"/>
-      <c r="J28" s="167"/>
-      <c r="K28" s="167"/>
-      <c r="L28" s="167"/>
-      <c r="M28" s="167"/>
-      <c r="N28" s="167"/>
-      <c r="O28" s="167"/>
-      <c r="P28" s="167"/>
-      <c r="Q28" s="167"/>
-      <c r="R28" s="167"/>
-      <c r="S28" s="165"/>
-      <c r="T28" s="165"/>
-      <c r="U28" s="165"/>
-      <c r="V28" s="165"/>
-      <c r="W28" s="165"/>
-      <c r="X28" s="165"/>
-      <c r="Y28" s="165"/>
-      <c r="Z28" s="165"/>
-      <c r="AA28" s="165"/>
-      <c r="AB28" s="165"/>
-      <c r="AC28" s="165"/>
-      <c r="AD28" s="165"/>
-      <c r="AE28" s="165"/>
-      <c r="AF28" s="165"/>
-      <c r="AG28" s="165"/>
-      <c r="AH28" s="165"/>
-      <c r="AI28" s="165"/>
-      <c r="AJ28" s="165"/>
-      <c r="AK28" s="165"/>
-      <c r="AL28" s="165"/>
-      <c r="AM28" s="165"/>
-      <c r="AN28" s="165"/>
-      <c r="AO28" s="165"/>
-      <c r="AP28" s="165"/>
-      <c r="AQ28" s="165"/>
-      <c r="AR28" s="165"/>
-      <c r="AS28" s="165"/>
-      <c r="AT28" s="165"/>
-      <c r="AU28" s="165"/>
-      <c r="AV28" s="165"/>
-      <c r="AW28" s="165"/>
-      <c r="AX28" s="165"/>
-      <c r="AY28" s="165"/>
-      <c r="AZ28" s="165"/>
-      <c r="BA28" s="165"/>
-      <c r="BB28" s="165"/>
-      <c r="BC28" s="165"/>
-      <c r="BD28" s="165"/>
-      <c r="BE28" s="165"/>
-      <c r="BF28" s="165"/>
-      <c r="BG28" s="165"/>
-      <c r="BH28" s="165"/>
-      <c r="BI28" s="165"/>
-      <c r="BJ28" s="165"/>
-      <c r="BK28" s="165"/>
-      <c r="BL28" s="165"/>
-      <c r="BM28" s="165"/>
-      <c r="BN28" s="165"/>
-      <c r="BO28" s="165"/>
-      <c r="BP28" s="165"/>
-      <c r="BQ28" s="165"/>
-      <c r="BR28" s="165"/>
-      <c r="BS28" s="165"/>
-      <c r="BT28" s="165"/>
-      <c r="BU28" s="165"/>
-      <c r="BV28" s="165"/>
-      <c r="BW28" s="165"/>
-      <c r="BX28" s="165"/>
-      <c r="BY28" s="165"/>
-      <c r="BZ28" s="165"/>
-      <c r="CA28" s="165"/>
-      <c r="CB28" s="165"/>
-      <c r="CC28" s="165"/>
-      <c r="CD28" s="165"/>
-      <c r="CE28" s="165"/>
-      <c r="CF28" s="165"/>
-      <c r="CG28" s="165"/>
-      <c r="CH28" s="165"/>
-      <c r="CI28" s="165"/>
-      <c r="CJ28" s="165"/>
-      <c r="CK28" s="165"/>
-      <c r="CL28" s="165"/>
-      <c r="CM28" s="165"/>
-      <c r="CN28" s="165"/>
-      <c r="CO28" s="165"/>
-      <c r="CP28" s="165"/>
-      <c r="CQ28" s="165"/>
-      <c r="CR28" s="165"/>
-      <c r="CS28" s="165"/>
-      <c r="CT28" s="165"/>
-      <c r="CU28" s="165"/>
-      <c r="CV28" s="165"/>
-      <c r="CW28" s="165"/>
-      <c r="CX28" s="165"/>
-      <c r="CY28" s="165"/>
-      <c r="CZ28" s="165"/>
-      <c r="DA28" s="165"/>
-      <c r="DB28" s="165"/>
-      <c r="DC28" s="165"/>
-      <c r="DD28" s="165"/>
-      <c r="DE28" s="165"/>
-      <c r="DF28" s="165"/>
-      <c r="DG28" s="165"/>
-      <c r="DH28" s="165"/>
-      <c r="DI28" s="165"/>
-      <c r="DJ28" s="165"/>
-      <c r="DK28" s="165"/>
-      <c r="DL28" s="165"/>
-      <c r="DM28" s="165"/>
-      <c r="DN28" s="165"/>
-      <c r="DO28" s="165"/>
-      <c r="DP28" s="165"/>
-      <c r="DQ28" s="165"/>
-      <c r="DR28" s="165"/>
-      <c r="DS28" s="165"/>
-      <c r="DT28" s="165"/>
-      <c r="DU28" s="165"/>
-      <c r="DV28" s="165"/>
-      <c r="DW28" s="165"/>
-      <c r="DX28" s="165"/>
-      <c r="DY28" s="165"/>
-      <c r="DZ28" s="165"/>
-      <c r="EA28" s="165"/>
-      <c r="EB28" s="165"/>
-      <c r="EC28" s="165"/>
-      <c r="ED28" s="165"/>
-      <c r="EE28" s="165"/>
-      <c r="EF28" s="165"/>
-      <c r="EG28" s="165"/>
-      <c r="EH28" s="165"/>
-      <c r="EI28" s="165"/>
-      <c r="EJ28" s="165"/>
-      <c r="EK28" s="165"/>
-      <c r="EL28" s="165"/>
-      <c r="EM28" s="165"/>
-      <c r="EN28" s="165"/>
-      <c r="EO28" s="165"/>
-      <c r="EP28" s="165"/>
-      <c r="EQ28" s="165"/>
-      <c r="ER28" s="165"/>
-      <c r="ES28" s="165"/>
-      <c r="ET28" s="165"/>
-      <c r="EU28" s="165"/>
-      <c r="EV28" s="165"/>
-      <c r="EW28" s="165"/>
-      <c r="EX28" s="165"/>
-      <c r="EY28" s="165"/>
-      <c r="EZ28" s="165"/>
-      <c r="FA28" s="165"/>
-      <c r="FB28" s="165"/>
-      <c r="FC28" s="165"/>
-      <c r="FD28" s="165"/>
-      <c r="FE28" s="165"/>
-      <c r="FF28" s="165"/>
-      <c r="FG28" s="165"/>
-      <c r="FH28" s="165"/>
-      <c r="FI28" s="165"/>
-      <c r="FJ28" s="165"/>
-      <c r="FK28" s="165"/>
-      <c r="FL28" s="165"/>
-      <c r="FM28" s="165"/>
-      <c r="FN28" s="165"/>
-      <c r="FO28" s="165"/>
-      <c r="FP28" s="165"/>
-      <c r="FQ28" s="165"/>
-      <c r="FR28" s="165"/>
-      <c r="FS28" s="165"/>
-      <c r="FT28" s="165"/>
-      <c r="FU28" s="165"/>
-      <c r="FV28" s="165"/>
-      <c r="FW28" s="165"/>
-      <c r="FX28" s="165"/>
-      <c r="FY28" s="165"/>
-      <c r="FZ28" s="165"/>
-      <c r="GA28" s="165"/>
-      <c r="GB28" s="165"/>
-      <c r="GC28" s="165"/>
-      <c r="GD28" s="165"/>
-      <c r="GE28" s="165"/>
-      <c r="GF28" s="165"/>
-      <c r="GG28" s="165"/>
-      <c r="GH28" s="165"/>
-      <c r="GI28" s="165"/>
-      <c r="GJ28" s="165"/>
-      <c r="GK28" s="165"/>
-      <c r="GL28" s="165"/>
+      <c r="B28" s="184"/>
+      <c r="C28" s="184"/>
+      <c r="D28" s="184"/>
+      <c r="E28" s="184"/>
+      <c r="F28" s="184"/>
+      <c r="G28" s="184"/>
+      <c r="H28" s="184"/>
+      <c r="I28" s="184"/>
+      <c r="J28" s="184"/>
+      <c r="K28" s="184"/>
+      <c r="L28" s="184"/>
+      <c r="M28" s="184"/>
+      <c r="N28" s="184"/>
+      <c r="O28" s="184"/>
+      <c r="P28" s="184"/>
+      <c r="Q28" s="184"/>
+      <c r="R28" s="184"/>
+      <c r="S28" s="183"/>
+      <c r="T28" s="183"/>
+      <c r="U28" s="183"/>
+      <c r="V28" s="183"/>
+      <c r="W28" s="183"/>
+      <c r="X28" s="183"/>
+      <c r="Y28" s="183"/>
+      <c r="Z28" s="183"/>
+      <c r="AA28" s="183"/>
+      <c r="AB28" s="183"/>
+      <c r="AC28" s="183"/>
+      <c r="AD28" s="183"/>
+      <c r="AE28" s="183"/>
+      <c r="AF28" s="183"/>
+      <c r="AG28" s="183"/>
+      <c r="AH28" s="183"/>
+      <c r="AI28" s="183"/>
+      <c r="AJ28" s="183"/>
+      <c r="AK28" s="183"/>
+      <c r="AL28" s="183"/>
+      <c r="AM28" s="183"/>
+      <c r="AN28" s="183"/>
+      <c r="AO28" s="183"/>
+      <c r="AP28" s="183"/>
+      <c r="AQ28" s="183"/>
+      <c r="AR28" s="183"/>
+      <c r="AS28" s="183"/>
+      <c r="AT28" s="183"/>
+      <c r="AU28" s="183"/>
+      <c r="AV28" s="183"/>
+      <c r="AW28" s="183"/>
+      <c r="AX28" s="183"/>
+      <c r="AY28" s="183"/>
+      <c r="AZ28" s="183"/>
+      <c r="BA28" s="183"/>
+      <c r="BB28" s="183"/>
+      <c r="BC28" s="183"/>
+      <c r="BD28" s="183"/>
+      <c r="BE28" s="183"/>
+      <c r="BF28" s="183"/>
+      <c r="BG28" s="183"/>
+      <c r="BH28" s="183"/>
+      <c r="BI28" s="183"/>
+      <c r="BJ28" s="183"/>
+      <c r="BK28" s="183"/>
+      <c r="BL28" s="183"/>
+      <c r="BM28" s="183"/>
+      <c r="BN28" s="183"/>
+      <c r="BO28" s="183"/>
+      <c r="BP28" s="183"/>
+      <c r="BQ28" s="183"/>
+      <c r="BR28" s="183"/>
+      <c r="BS28" s="183"/>
+      <c r="BT28" s="183"/>
+      <c r="BU28" s="183"/>
+      <c r="BV28" s="183"/>
+      <c r="BW28" s="183"/>
+      <c r="BX28" s="183"/>
+      <c r="BY28" s="183"/>
+      <c r="BZ28" s="183"/>
+      <c r="CA28" s="183"/>
+      <c r="CB28" s="183"/>
+      <c r="CC28" s="183"/>
+      <c r="CD28" s="183"/>
+      <c r="CE28" s="183"/>
+      <c r="CF28" s="183"/>
+      <c r="CG28" s="183"/>
+      <c r="CH28" s="183"/>
+      <c r="CI28" s="183"/>
+      <c r="CJ28" s="183"/>
+      <c r="CK28" s="183"/>
+      <c r="CL28" s="183"/>
+      <c r="CM28" s="183"/>
+      <c r="CN28" s="183"/>
+      <c r="CO28" s="183"/>
+      <c r="CP28" s="183"/>
+      <c r="CQ28" s="183"/>
+      <c r="CR28" s="183"/>
+      <c r="CS28" s="183"/>
+      <c r="CT28" s="183"/>
+      <c r="CU28" s="183"/>
+      <c r="CV28" s="183"/>
+      <c r="CW28" s="183"/>
+      <c r="CX28" s="183"/>
+      <c r="CY28" s="183"/>
+      <c r="CZ28" s="183"/>
+      <c r="DA28" s="183"/>
+      <c r="DB28" s="183"/>
+      <c r="DC28" s="183"/>
+      <c r="DD28" s="183"/>
+      <c r="DE28" s="183"/>
+      <c r="DF28" s="183"/>
+      <c r="DG28" s="183"/>
+      <c r="DH28" s="183"/>
+      <c r="DI28" s="183"/>
+      <c r="DJ28" s="183"/>
+      <c r="DK28" s="183"/>
+      <c r="DL28" s="183"/>
+      <c r="DM28" s="183"/>
+      <c r="DN28" s="183"/>
+      <c r="DO28" s="183"/>
+      <c r="DP28" s="183"/>
+      <c r="DQ28" s="183"/>
+      <c r="DR28" s="183"/>
+      <c r="DS28" s="183"/>
+      <c r="DT28" s="183"/>
+      <c r="DU28" s="183"/>
+      <c r="DV28" s="183"/>
+      <c r="DW28" s="183"/>
+      <c r="DX28" s="183"/>
+      <c r="DY28" s="183"/>
+      <c r="DZ28" s="183"/>
+      <c r="EA28" s="183"/>
+      <c r="EB28" s="183"/>
+      <c r="EC28" s="183"/>
+      <c r="ED28" s="183"/>
+      <c r="EE28" s="183"/>
+      <c r="EF28" s="183"/>
+      <c r="EG28" s="183"/>
+      <c r="EH28" s="183"/>
+      <c r="EI28" s="183"/>
+      <c r="EJ28" s="183"/>
+      <c r="EK28" s="183"/>
+      <c r="EL28" s="183"/>
+      <c r="EM28" s="183"/>
+      <c r="EN28" s="183"/>
+      <c r="EO28" s="183"/>
+      <c r="EP28" s="183"/>
+      <c r="EQ28" s="183"/>
+      <c r="ER28" s="183"/>
+      <c r="ES28" s="183"/>
+      <c r="ET28" s="183"/>
+      <c r="EU28" s="183"/>
+      <c r="EV28" s="183"/>
+      <c r="EW28" s="183"/>
+      <c r="EX28" s="183"/>
+      <c r="EY28" s="183"/>
+      <c r="EZ28" s="183"/>
+      <c r="FA28" s="183"/>
+      <c r="FB28" s="183"/>
+      <c r="FC28" s="183"/>
+      <c r="FD28" s="183"/>
+      <c r="FE28" s="183"/>
+      <c r="FF28" s="183"/>
+      <c r="FG28" s="183"/>
+      <c r="FH28" s="183"/>
+      <c r="FI28" s="183"/>
+      <c r="FJ28" s="183"/>
+      <c r="FK28" s="183"/>
+      <c r="FL28" s="183"/>
+      <c r="FM28" s="183"/>
+      <c r="FN28" s="183"/>
+      <c r="FO28" s="183"/>
+      <c r="FP28" s="183"/>
+      <c r="FQ28" s="183"/>
+      <c r="FR28" s="183"/>
+      <c r="FS28" s="183"/>
+      <c r="FT28" s="183"/>
+      <c r="FU28" s="183"/>
+      <c r="FV28" s="183"/>
+      <c r="FW28" s="183"/>
+      <c r="FX28" s="183"/>
+      <c r="FY28" s="183"/>
+      <c r="FZ28" s="183"/>
+      <c r="GA28" s="183"/>
+      <c r="GB28" s="183"/>
+      <c r="GC28" s="183"/>
+      <c r="GD28" s="183"/>
+      <c r="GE28" s="183"/>
+      <c r="GF28" s="183"/>
+      <c r="GG28" s="183"/>
+      <c r="GH28" s="183"/>
+      <c r="GI28" s="183"/>
+      <c r="GJ28" s="183"/>
+      <c r="GK28" s="183"/>
+      <c r="GL28" s="183"/>
       <c r="GM28" s="95"/>
     </row>
     <row r="29" spans="1:195" ht="18">
-      <c r="B29" s="166"/>
-      <c r="C29" s="166"/>
-      <c r="D29" s="166"/>
-      <c r="E29" s="166"/>
-      <c r="F29" s="166"/>
-      <c r="G29" s="166"/>
-      <c r="H29" s="166"/>
-      <c r="I29" s="166"/>
-      <c r="J29" s="166"/>
-      <c r="K29" s="166"/>
-      <c r="L29" s="166"/>
-      <c r="M29" s="166"/>
-      <c r="N29" s="166"/>
-      <c r="O29" s="166"/>
-      <c r="P29" s="166"/>
-      <c r="Q29" s="166"/>
-      <c r="R29" s="166"/>
+      <c r="B29" s="182"/>
+      <c r="C29" s="182"/>
+      <c r="D29" s="182"/>
+      <c r="E29" s="182"/>
+      <c r="F29" s="182"/>
+      <c r="G29" s="182"/>
+      <c r="H29" s="182"/>
+      <c r="I29" s="182"/>
+      <c r="J29" s="182"/>
+      <c r="K29" s="182"/>
+      <c r="L29" s="182"/>
+      <c r="M29" s="182"/>
+      <c r="N29" s="182"/>
+      <c r="O29" s="182"/>
+      <c r="P29" s="182"/>
+      <c r="Q29" s="182"/>
+      <c r="R29" s="182"/>
     </row>
     <row r="30" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A30" s="164"/>
-      <c r="B30" s="164"/>
-      <c r="C30" s="164"/>
-      <c r="D30" s="164"/>
-      <c r="E30" s="164"/>
-      <c r="F30" s="164"/>
-      <c r="G30" s="164"/>
-      <c r="H30" s="164"/>
-      <c r="I30" s="164"/>
-      <c r="J30" s="164"/>
+      <c r="A30" s="185"/>
+      <c r="B30" s="185"/>
+      <c r="C30" s="185"/>
+      <c r="D30" s="185"/>
+      <c r="E30" s="185"/>
+      <c r="F30" s="185"/>
+      <c r="G30" s="185"/>
+      <c r="H30" s="185"/>
+      <c r="I30" s="185"/>
+      <c r="J30" s="185"/>
       <c r="K30" s="96"/>
       <c r="L30" s="96"/>
       <c r="M30" s="96"/>
@@ -6648,16 +6648,16 @@
       <c r="R30" s="96"/>
     </row>
     <row r="31" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A31" s="164"/>
-      <c r="B31" s="164"/>
-      <c r="C31" s="164"/>
-      <c r="D31" s="164"/>
-      <c r="E31" s="164"/>
-      <c r="F31" s="164"/>
-      <c r="G31" s="164"/>
-      <c r="H31" s="164"/>
-      <c r="I31" s="164"/>
-      <c r="J31" s="164"/>
+      <c r="A31" s="185"/>
+      <c r="B31" s="185"/>
+      <c r="C31" s="185"/>
+      <c r="D31" s="185"/>
+      <c r="E31" s="185"/>
+      <c r="F31" s="185"/>
+      <c r="G31" s="185"/>
+      <c r="H31" s="185"/>
+      <c r="I31" s="185"/>
+      <c r="J31" s="185"/>
       <c r="K31" s="96"/>
       <c r="L31" s="96"/>
       <c r="M31" s="96"/>
@@ -6669,6 +6669,28 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="DF28:DV28"/>
+    <mergeCell ref="DW28:EM28"/>
+    <mergeCell ref="EN28:FD28"/>
+    <mergeCell ref="B26:R26"/>
+    <mergeCell ref="FE28:FU28"/>
+    <mergeCell ref="FV28:GL28"/>
+    <mergeCell ref="B29:R29"/>
+    <mergeCell ref="S28:X28"/>
+    <mergeCell ref="Y28:AO28"/>
+    <mergeCell ref="AP28:BF28"/>
+    <mergeCell ref="BG28:BW28"/>
+    <mergeCell ref="BX28:CN28"/>
+    <mergeCell ref="CO28:DE28"/>
+    <mergeCell ref="B28:R28"/>
+    <mergeCell ref="B18:R18"/>
+    <mergeCell ref="B20:R20"/>
+    <mergeCell ref="B21:R21"/>
+    <mergeCell ref="B22:R22"/>
+    <mergeCell ref="B23:R23"/>
+    <mergeCell ref="B19:R19"/>
     <mergeCell ref="B14:R14"/>
     <mergeCell ref="B15:R15"/>
     <mergeCell ref="A16:J16"/>
@@ -6682,28 +6704,6 @@
     <mergeCell ref="C1:F3"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
-    <mergeCell ref="B18:R18"/>
-    <mergeCell ref="B20:R20"/>
-    <mergeCell ref="B21:R21"/>
-    <mergeCell ref="B22:R22"/>
-    <mergeCell ref="B23:R23"/>
-    <mergeCell ref="B19:R19"/>
-    <mergeCell ref="B26:R26"/>
-    <mergeCell ref="FE28:FU28"/>
-    <mergeCell ref="FV28:GL28"/>
-    <mergeCell ref="B29:R29"/>
-    <mergeCell ref="S28:X28"/>
-    <mergeCell ref="Y28:AO28"/>
-    <mergeCell ref="AP28:BF28"/>
-    <mergeCell ref="BG28:BW28"/>
-    <mergeCell ref="BX28:CN28"/>
-    <mergeCell ref="CO28:DE28"/>
-    <mergeCell ref="B28:R28"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="DF28:DV28"/>
-    <mergeCell ref="DW28:EM28"/>
-    <mergeCell ref="EN28:FD28"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.196850393700787" right="0.196850393700787" top="0.39370078740157499" bottom="0" header="0" footer="0"/>
@@ -7258,10 +7258,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="198" t="s">
+      <c r="A1" s="186" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="198"/>
+      <c r="B1" s="186"/>
       <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
@@ -7288,8 +7288,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="198"/>
-      <c r="B2" s="198"/>
+      <c r="A2" s="186"/>
+      <c r="B2" s="186"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
       </c>
@@ -7328,14 +7328,14 @@
       <c r="D4" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="199" t="s">
+      <c r="E4" s="187" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="199"/>
-      <c r="G4" s="199"/>
-      <c r="H4" s="199"/>
-      <c r="I4" s="199"/>
-      <c r="J4" s="199"/>
+      <c r="F4" s="187"/>
+      <c r="G4" s="187"/>
+      <c r="H4" s="187"/>
+      <c r="I4" s="187"/>
+      <c r="J4" s="187"/>
     </row>
     <row r="5" spans="1:10" s="25" customFormat="1" ht="11.25">
       <c r="A5" s="102">
@@ -7350,14 +7350,14 @@
       <c r="D5" s="106" t="s">
         <v>180</v>
       </c>
-      <c r="E5" s="200" t="s">
+      <c r="E5" s="188" t="s">
         <v>183</v>
       </c>
-      <c r="F5" s="200"/>
-      <c r="G5" s="200"/>
-      <c r="H5" s="200"/>
-      <c r="I5" s="200"/>
-      <c r="J5" s="200"/>
+      <c r="F5" s="188"/>
+      <c r="G5" s="188"/>
+      <c r="H5" s="188"/>
+      <c r="I5" s="188"/>
+      <c r="J5" s="188"/>
     </row>
     <row r="6" spans="1:10" ht="12.75">
       <c r="A6" s="70">
@@ -7368,12 +7368,12 @@
       </c>
       <c r="C6" s="156"/>
       <c r="D6" s="156"/>
-      <c r="E6" s="201"/>
-      <c r="F6" s="202"/>
-      <c r="G6" s="202"/>
-      <c r="H6" s="202"/>
-      <c r="I6" s="202"/>
-      <c r="J6" s="203"/>
+      <c r="E6" s="189"/>
+      <c r="F6" s="190"/>
+      <c r="G6" s="190"/>
+      <c r="H6" s="190"/>
+      <c r="I6" s="190"/>
+      <c r="J6" s="191"/>
     </row>
     <row r="7" spans="1:10" ht="12.75">
       <c r="A7" s="71">
@@ -7384,12 +7384,12 @@
       </c>
       <c r="C7" s="156"/>
       <c r="D7" s="156"/>
-      <c r="E7" s="190"/>
-      <c r="F7" s="191"/>
-      <c r="G7" s="191"/>
-      <c r="H7" s="191"/>
-      <c r="I7" s="191"/>
-      <c r="J7" s="192"/>
+      <c r="E7" s="193"/>
+      <c r="F7" s="194"/>
+      <c r="G7" s="194"/>
+      <c r="H7" s="194"/>
+      <c r="I7" s="194"/>
+      <c r="J7" s="195"/>
     </row>
     <row r="8" spans="1:10" ht="12.75">
       <c r="A8" s="72">
@@ -7400,12 +7400,12 @@
       </c>
       <c r="C8" s="154"/>
       <c r="D8" s="154"/>
-      <c r="E8" s="193"/>
-      <c r="F8" s="194"/>
-      <c r="G8" s="194"/>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
-      <c r="J8" s="194"/>
+      <c r="E8" s="196"/>
+      <c r="F8" s="197"/>
+      <c r="G8" s="197"/>
+      <c r="H8" s="197"/>
+      <c r="I8" s="197"/>
+      <c r="J8" s="197"/>
     </row>
     <row r="9" spans="1:10" s="136" customFormat="1" ht="12.75">
       <c r="A9" s="73">
@@ -7416,12 +7416,12 @@
       </c>
       <c r="C9" s="154"/>
       <c r="D9" s="152"/>
-      <c r="E9" s="195"/>
-      <c r="F9" s="196"/>
-      <c r="G9" s="196"/>
-      <c r="H9" s="196"/>
-      <c r="I9" s="196"/>
-      <c r="J9" s="197"/>
+      <c r="E9" s="198"/>
+      <c r="F9" s="199"/>
+      <c r="G9" s="199"/>
+      <c r="H9" s="199"/>
+      <c r="I9" s="199"/>
+      <c r="J9" s="200"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="74">
@@ -7432,12 +7432,12 @@
       </c>
       <c r="C10" s="64"/>
       <c r="D10" s="37"/>
-      <c r="E10" s="187"/>
-      <c r="F10" s="188"/>
-      <c r="G10" s="188"/>
-      <c r="H10" s="188"/>
-      <c r="I10" s="188"/>
-      <c r="J10" s="189"/>
+      <c r="E10" s="201"/>
+      <c r="F10" s="202"/>
+      <c r="G10" s="202"/>
+      <c r="H10" s="202"/>
+      <c r="I10" s="202"/>
+      <c r="J10" s="203"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="75">
@@ -7448,12 +7448,12 @@
       </c>
       <c r="C11" s="64"/>
       <c r="D11" s="37"/>
-      <c r="E11" s="187"/>
-      <c r="F11" s="188"/>
-      <c r="G11" s="188"/>
-      <c r="H11" s="188"/>
-      <c r="I11" s="188"/>
-      <c r="J11" s="189"/>
+      <c r="E11" s="201"/>
+      <c r="F11" s="202"/>
+      <c r="G11" s="202"/>
+      <c r="H11" s="202"/>
+      <c r="I11" s="202"/>
+      <c r="J11" s="203"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="76">
@@ -7464,12 +7464,12 @@
       </c>
       <c r="C12" s="64"/>
       <c r="D12" s="37"/>
-      <c r="E12" s="187"/>
-      <c r="F12" s="188"/>
-      <c r="G12" s="188"/>
-      <c r="H12" s="188"/>
-      <c r="I12" s="188"/>
-      <c r="J12" s="189"/>
+      <c r="E12" s="201"/>
+      <c r="F12" s="202"/>
+      <c r="G12" s="202"/>
+      <c r="H12" s="202"/>
+      <c r="I12" s="202"/>
+      <c r="J12" s="203"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="77">
@@ -7480,12 +7480,12 @@
       </c>
       <c r="C13" s="64"/>
       <c r="D13" s="37"/>
-      <c r="E13" s="187"/>
-      <c r="F13" s="188"/>
-      <c r="G13" s="188"/>
-      <c r="H13" s="188"/>
-      <c r="I13" s="188"/>
-      <c r="J13" s="189"/>
+      <c r="E13" s="201"/>
+      <c r="F13" s="202"/>
+      <c r="G13" s="202"/>
+      <c r="H13" s="202"/>
+      <c r="I13" s="202"/>
+      <c r="J13" s="203"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="78">
@@ -7496,12 +7496,12 @@
       </c>
       <c r="C14" s="64"/>
       <c r="D14" s="37"/>
-      <c r="E14" s="187"/>
-      <c r="F14" s="188"/>
-      <c r="G14" s="188"/>
-      <c r="H14" s="188"/>
-      <c r="I14" s="188"/>
-      <c r="J14" s="189"/>
+      <c r="E14" s="201"/>
+      <c r="F14" s="202"/>
+      <c r="G14" s="202"/>
+      <c r="H14" s="202"/>
+      <c r="I14" s="202"/>
+      <c r="J14" s="203"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="37">
@@ -7512,12 +7512,12 @@
       </c>
       <c r="C15" s="64"/>
       <c r="D15" s="37"/>
-      <c r="E15" s="186"/>
-      <c r="F15" s="186"/>
-      <c r="G15" s="186"/>
-      <c r="H15" s="186"/>
-      <c r="I15" s="186"/>
-      <c r="J15" s="186"/>
+      <c r="E15" s="192"/>
+      <c r="F15" s="192"/>
+      <c r="G15" s="192"/>
+      <c r="H15" s="192"/>
+      <c r="I15" s="192"/>
+      <c r="J15" s="192"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="70">
@@ -7528,12 +7528,12 @@
       </c>
       <c r="C16" s="64"/>
       <c r="D16" s="37"/>
-      <c r="E16" s="186"/>
-      <c r="F16" s="186"/>
-      <c r="G16" s="186"/>
-      <c r="H16" s="186"/>
-      <c r="I16" s="186"/>
-      <c r="J16" s="186"/>
+      <c r="E16" s="192"/>
+      <c r="F16" s="192"/>
+      <c r="G16" s="192"/>
+      <c r="H16" s="192"/>
+      <c r="I16" s="192"/>
+      <c r="J16" s="192"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="71">
@@ -7544,12 +7544,12 @@
       </c>
       <c r="C17" s="64"/>
       <c r="D17" s="37"/>
-      <c r="E17" s="186"/>
-      <c r="F17" s="186"/>
-      <c r="G17" s="186"/>
-      <c r="H17" s="186"/>
-      <c r="I17" s="186"/>
-      <c r="J17" s="186"/>
+      <c r="E17" s="192"/>
+      <c r="F17" s="192"/>
+      <c r="G17" s="192"/>
+      <c r="H17" s="192"/>
+      <c r="I17" s="192"/>
+      <c r="J17" s="192"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="72">
@@ -7560,12 +7560,12 @@
       </c>
       <c r="C18" s="64"/>
       <c r="D18" s="37"/>
-      <c r="E18" s="186"/>
-      <c r="F18" s="186"/>
-      <c r="G18" s="186"/>
-      <c r="H18" s="186"/>
-      <c r="I18" s="186"/>
-      <c r="J18" s="186"/>
+      <c r="E18" s="192"/>
+      <c r="F18" s="192"/>
+      <c r="G18" s="192"/>
+      <c r="H18" s="192"/>
+      <c r="I18" s="192"/>
+      <c r="J18" s="192"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="73">
@@ -7576,12 +7576,12 @@
       </c>
       <c r="C19" s="64"/>
       <c r="D19" s="37"/>
-      <c r="E19" s="186"/>
-      <c r="F19" s="186"/>
-      <c r="G19" s="186"/>
-      <c r="H19" s="186"/>
-      <c r="I19" s="186"/>
-      <c r="J19" s="186"/>
+      <c r="E19" s="192"/>
+      <c r="F19" s="192"/>
+      <c r="G19" s="192"/>
+      <c r="H19" s="192"/>
+      <c r="I19" s="192"/>
+      <c r="J19" s="192"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="74">
@@ -7592,12 +7592,12 @@
       </c>
       <c r="C20" s="64"/>
       <c r="D20" s="37"/>
-      <c r="E20" s="186"/>
-      <c r="F20" s="186"/>
-      <c r="G20" s="186"/>
-      <c r="H20" s="186"/>
-      <c r="I20" s="186"/>
-      <c r="J20" s="186"/>
+      <c r="E20" s="192"/>
+      <c r="F20" s="192"/>
+      <c r="G20" s="192"/>
+      <c r="H20" s="192"/>
+      <c r="I20" s="192"/>
+      <c r="J20" s="192"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="75">
@@ -7608,12 +7608,12 @@
       </c>
       <c r="C21" s="64"/>
       <c r="D21" s="37"/>
-      <c r="E21" s="186"/>
-      <c r="F21" s="186"/>
-      <c r="G21" s="186"/>
-      <c r="H21" s="186"/>
-      <c r="I21" s="186"/>
-      <c r="J21" s="186"/>
+      <c r="E21" s="192"/>
+      <c r="F21" s="192"/>
+      <c r="G21" s="192"/>
+      <c r="H21" s="192"/>
+      <c r="I21" s="192"/>
+      <c r="J21" s="192"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="76">
@@ -7624,12 +7624,12 @@
       </c>
       <c r="C22" s="64"/>
       <c r="D22" s="37"/>
-      <c r="E22" s="186"/>
-      <c r="F22" s="186"/>
-      <c r="G22" s="186"/>
-      <c r="H22" s="186"/>
-      <c r="I22" s="186"/>
-      <c r="J22" s="186"/>
+      <c r="E22" s="192"/>
+      <c r="F22" s="192"/>
+      <c r="G22" s="192"/>
+      <c r="H22" s="192"/>
+      <c r="I22" s="192"/>
+      <c r="J22" s="192"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="77">
@@ -7640,12 +7640,12 @@
       </c>
       <c r="C23" s="64"/>
       <c r="D23" s="37"/>
-      <c r="E23" s="186"/>
-      <c r="F23" s="186"/>
-      <c r="G23" s="186"/>
-      <c r="H23" s="186"/>
-      <c r="I23" s="186"/>
-      <c r="J23" s="186"/>
+      <c r="E23" s="192"/>
+      <c r="F23" s="192"/>
+      <c r="G23" s="192"/>
+      <c r="H23" s="192"/>
+      <c r="I23" s="192"/>
+      <c r="J23" s="192"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="78">
@@ -7656,12 +7656,12 @@
       </c>
       <c r="C24" s="64"/>
       <c r="D24" s="37"/>
-      <c r="E24" s="186"/>
-      <c r="F24" s="186"/>
-      <c r="G24" s="186"/>
-      <c r="H24" s="186"/>
-      <c r="I24" s="186"/>
-      <c r="J24" s="186"/>
+      <c r="E24" s="192"/>
+      <c r="F24" s="192"/>
+      <c r="G24" s="192"/>
+      <c r="H24" s="192"/>
+      <c r="I24" s="192"/>
+      <c r="J24" s="192"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="37">
@@ -7672,12 +7672,12 @@
       </c>
       <c r="C25" s="64"/>
       <c r="D25" s="37"/>
-      <c r="E25" s="186"/>
-      <c r="F25" s="186"/>
-      <c r="G25" s="186"/>
-      <c r="H25" s="186"/>
-      <c r="I25" s="186"/>
-      <c r="J25" s="186"/>
+      <c r="E25" s="192"/>
+      <c r="F25" s="192"/>
+      <c r="G25" s="192"/>
+      <c r="H25" s="192"/>
+      <c r="I25" s="192"/>
+      <c r="J25" s="192"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="70">
@@ -7688,12 +7688,12 @@
       </c>
       <c r="C26" s="64"/>
       <c r="D26" s="37"/>
-      <c r="E26" s="186"/>
-      <c r="F26" s="186"/>
-      <c r="G26" s="186"/>
-      <c r="H26" s="186"/>
-      <c r="I26" s="186"/>
-      <c r="J26" s="186"/>
+      <c r="E26" s="192"/>
+      <c r="F26" s="192"/>
+      <c r="G26" s="192"/>
+      <c r="H26" s="192"/>
+      <c r="I26" s="192"/>
+      <c r="J26" s="192"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="71">
@@ -7704,12 +7704,12 @@
       </c>
       <c r="C27" s="64"/>
       <c r="D27" s="37"/>
-      <c r="E27" s="186"/>
-      <c r="F27" s="186"/>
-      <c r="G27" s="186"/>
-      <c r="H27" s="186"/>
-      <c r="I27" s="186"/>
-      <c r="J27" s="186"/>
+      <c r="E27" s="192"/>
+      <c r="F27" s="192"/>
+      <c r="G27" s="192"/>
+      <c r="H27" s="192"/>
+      <c r="I27" s="192"/>
+      <c r="J27" s="192"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="72">
@@ -7720,12 +7720,12 @@
       </c>
       <c r="C28" s="64"/>
       <c r="D28" s="37"/>
-      <c r="E28" s="186"/>
-      <c r="F28" s="186"/>
-      <c r="G28" s="186"/>
-      <c r="H28" s="186"/>
-      <c r="I28" s="186"/>
-      <c r="J28" s="186"/>
+      <c r="E28" s="192"/>
+      <c r="F28" s="192"/>
+      <c r="G28" s="192"/>
+      <c r="H28" s="192"/>
+      <c r="I28" s="192"/>
+      <c r="J28" s="192"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="73">
@@ -7736,12 +7736,12 @@
       </c>
       <c r="C29" s="64"/>
       <c r="D29" s="37"/>
-      <c r="E29" s="186"/>
-      <c r="F29" s="186"/>
-      <c r="G29" s="186"/>
-      <c r="H29" s="186"/>
-      <c r="I29" s="186"/>
-      <c r="J29" s="186"/>
+      <c r="E29" s="192"/>
+      <c r="F29" s="192"/>
+      <c r="G29" s="192"/>
+      <c r="H29" s="192"/>
+      <c r="I29" s="192"/>
+      <c r="J29" s="192"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="74">
@@ -7752,12 +7752,12 @@
       </c>
       <c r="C30" s="64"/>
       <c r="D30" s="37"/>
-      <c r="E30" s="186"/>
-      <c r="F30" s="186"/>
-      <c r="G30" s="186"/>
-      <c r="H30" s="186"/>
-      <c r="I30" s="186"/>
-      <c r="J30" s="186"/>
+      <c r="E30" s="192"/>
+      <c r="F30" s="192"/>
+      <c r="G30" s="192"/>
+      <c r="H30" s="192"/>
+      <c r="I30" s="192"/>
+      <c r="J30" s="192"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="75">
@@ -7768,12 +7768,12 @@
       </c>
       <c r="C31" s="64"/>
       <c r="D31" s="37"/>
-      <c r="E31" s="186"/>
-      <c r="F31" s="186"/>
-      <c r="G31" s="186"/>
-      <c r="H31" s="186"/>
-      <c r="I31" s="186"/>
-      <c r="J31" s="186"/>
+      <c r="E31" s="192"/>
+      <c r="F31" s="192"/>
+      <c r="G31" s="192"/>
+      <c r="H31" s="192"/>
+      <c r="I31" s="192"/>
+      <c r="J31" s="192"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="76">
@@ -7784,12 +7784,12 @@
       </c>
       <c r="C32" s="64"/>
       <c r="D32" s="37"/>
-      <c r="E32" s="186"/>
-      <c r="F32" s="186"/>
-      <c r="G32" s="186"/>
-      <c r="H32" s="186"/>
-      <c r="I32" s="186"/>
-      <c r="J32" s="186"/>
+      <c r="E32" s="192"/>
+      <c r="F32" s="192"/>
+      <c r="G32" s="192"/>
+      <c r="H32" s="192"/>
+      <c r="I32" s="192"/>
+      <c r="J32" s="192"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="77">
@@ -7800,12 +7800,12 @@
       </c>
       <c r="C33" s="64"/>
       <c r="D33" s="37"/>
-      <c r="E33" s="186"/>
-      <c r="F33" s="186"/>
-      <c r="G33" s="186"/>
-      <c r="H33" s="186"/>
-      <c r="I33" s="186"/>
-      <c r="J33" s="186"/>
+      <c r="E33" s="192"/>
+      <c r="F33" s="192"/>
+      <c r="G33" s="192"/>
+      <c r="H33" s="192"/>
+      <c r="I33" s="192"/>
+      <c r="J33" s="192"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="78">
@@ -7816,26 +7816,20 @@
       </c>
       <c r="C34" s="64"/>
       <c r="D34" s="37"/>
-      <c r="E34" s="186"/>
-      <c r="F34" s="186"/>
-      <c r="G34" s="186"/>
-      <c r="H34" s="186"/>
-      <c r="I34" s="186"/>
-      <c r="J34" s="186"/>
+      <c r="E34" s="192"/>
+      <c r="F34" s="192"/>
+      <c r="G34" s="192"/>
+      <c r="H34" s="192"/>
+      <c r="I34" s="192"/>
+      <c r="J34" s="192"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="E22:J22"/>
-    <mergeCell ref="E23:J23"/>
-    <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E30:J30"/>
     <mergeCell ref="E31:J31"/>
     <mergeCell ref="E32:J32"/>
     <mergeCell ref="E33:J33"/>
@@ -7852,11 +7846,17 @@
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="E13:J13"/>
     <mergeCell ref="E21:J21"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="E23:J23"/>
+    <mergeCell ref="E24:J24"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
@@ -7901,10 +7901,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="198" t="s">
+      <c r="A1" s="186" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="198"/>
+      <c r="B1" s="186"/>
       <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
@@ -7935,8 +7935,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="198"/>
-      <c r="B2" s="198"/>
+      <c r="A2" s="186"/>
+      <c r="B2" s="186"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
       </c>
@@ -8545,12 +8545,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="198" t="s">
+      <c r="A1" s="186" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="198"/>
-      <c r="C1" s="198"/>
-      <c r="D1" s="198"/>
+      <c r="B1" s="186"/>
+      <c r="C1" s="186"/>
+      <c r="D1" s="186"/>
       <c r="E1" s="29" t="s">
         <v>1</v>
       </c>
@@ -8584,10 +8584,10 @@
       </c>
     </row>
     <row r="2" spans="1:15" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="198"/>
-      <c r="B2" s="198"/>
-      <c r="C2" s="198"/>
-      <c r="D2" s="198"/>
+      <c r="A2" s="186"/>
+      <c r="B2" s="186"/>
+      <c r="C2" s="186"/>
+      <c r="D2" s="186"/>
       <c r="E2" s="29" t="s">
         <v>2</v>
       </c>
@@ -9301,7 +9301,7 @@
   <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -9699,7 +9699,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="234" t="s">
+      <c r="A1" s="239" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="99"/>
@@ -9735,7 +9735,7 @@
       <c r="L1" s="47"/>
     </row>
     <row r="2" spans="1:12" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="235"/>
+      <c r="A2" s="240"/>
       <c r="B2" s="100"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
@@ -9784,15 +9784,15 @@
       <c r="E4" s="79" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="198" t="s">
+      <c r="F4" s="186" t="s">
         <v>127</v>
       </c>
-      <c r="G4" s="198"/>
-      <c r="H4" s="198" t="s">
+      <c r="G4" s="186"/>
+      <c r="H4" s="186" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="198"/>
-      <c r="J4" s="198"/>
+      <c r="I4" s="186"/>
+      <c r="J4" s="186"/>
     </row>
     <row r="5" spans="1:12" s="33" customFormat="1" ht="11.25">
       <c r="A5" s="32">
@@ -9802,8 +9802,8 @@
       <c r="C5" s="119"/>
       <c r="D5" s="119"/>
       <c r="E5" s="31"/>
-      <c r="F5" s="239"/>
-      <c r="G5" s="240"/>
+      <c r="F5" s="234"/>
+      <c r="G5" s="235"/>
       <c r="H5" s="236"/>
       <c r="I5" s="237"/>
       <c r="J5" s="238"/>
@@ -9816,8 +9816,8 @@
       <c r="C6" s="119"/>
       <c r="D6" s="119"/>
       <c r="E6" s="31"/>
-      <c r="F6" s="239"/>
-      <c r="G6" s="240"/>
+      <c r="F6" s="234"/>
+      <c r="G6" s="235"/>
       <c r="H6" s="236"/>
       <c r="I6" s="237"/>
       <c r="J6" s="238"/>
@@ -9830,8 +9830,8 @@
       <c r="C7" s="119"/>
       <c r="D7" s="119"/>
       <c r="E7" s="31"/>
-      <c r="F7" s="239"/>
-      <c r="G7" s="240"/>
+      <c r="F7" s="234"/>
+      <c r="G7" s="235"/>
       <c r="H7" s="236"/>
       <c r="I7" s="237"/>
       <c r="J7" s="238"/>
@@ -9844,8 +9844,8 @@
       <c r="C8" s="32"/>
       <c r="D8" s="32"/>
       <c r="E8" s="31"/>
-      <c r="F8" s="239"/>
-      <c r="G8" s="240"/>
+      <c r="F8" s="234"/>
+      <c r="G8" s="235"/>
       <c r="H8" s="236"/>
       <c r="I8" s="237"/>
       <c r="J8" s="238"/>
@@ -9858,8 +9858,8 @@
       <c r="C9" s="32"/>
       <c r="D9" s="32"/>
       <c r="E9" s="31"/>
-      <c r="F9" s="239"/>
-      <c r="G9" s="240"/>
+      <c r="F9" s="234"/>
+      <c r="G9" s="235"/>
       <c r="H9" s="236"/>
       <c r="I9" s="237"/>
       <c r="J9" s="238"/>
@@ -9872,8 +9872,8 @@
       <c r="C10" s="32"/>
       <c r="D10" s="32"/>
       <c r="E10" s="31"/>
-      <c r="F10" s="239"/>
-      <c r="G10" s="240"/>
+      <c r="F10" s="234"/>
+      <c r="G10" s="235"/>
       <c r="H10" s="236"/>
       <c r="I10" s="237"/>
       <c r="J10" s="238"/>
@@ -9886,8 +9886,8 @@
       <c r="C11" s="32"/>
       <c r="D11" s="32"/>
       <c r="E11" s="31"/>
-      <c r="F11" s="239"/>
-      <c r="G11" s="240"/>
+      <c r="F11" s="234"/>
+      <c r="G11" s="235"/>
       <c r="H11" s="236"/>
       <c r="I11" s="237"/>
       <c r="J11" s="238"/>
@@ -9900,8 +9900,8 @@
       <c r="C12" s="32"/>
       <c r="D12" s="32"/>
       <c r="E12" s="31"/>
-      <c r="F12" s="239"/>
-      <c r="G12" s="240"/>
+      <c r="F12" s="234"/>
+      <c r="G12" s="235"/>
       <c r="H12" s="236"/>
       <c r="I12" s="237"/>
       <c r="J12" s="238"/>
@@ -9914,8 +9914,8 @@
       <c r="C13" s="32"/>
       <c r="D13" s="32"/>
       <c r="E13" s="31"/>
-      <c r="F13" s="239"/>
-      <c r="G13" s="240"/>
+      <c r="F13" s="234"/>
+      <c r="G13" s="235"/>
       <c r="H13" s="236"/>
       <c r="I13" s="237"/>
       <c r="J13" s="238"/>
@@ -9928,8 +9928,8 @@
       <c r="C14" s="32"/>
       <c r="D14" s="32"/>
       <c r="E14" s="31"/>
-      <c r="F14" s="239"/>
-      <c r="G14" s="240"/>
+      <c r="F14" s="234"/>
+      <c r="G14" s="235"/>
       <c r="H14" s="236"/>
       <c r="I14" s="237"/>
       <c r="J14" s="238"/>
@@ -9937,11 +9937,12 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="23">
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:J5"/>
     <mergeCell ref="H11:J11"/>
     <mergeCell ref="H12:J12"/>
     <mergeCell ref="F10:G10"/>
@@ -9954,12 +9955,11 @@
     <mergeCell ref="H8:J8"/>
     <mergeCell ref="H9:J9"/>
     <mergeCell ref="H10:J10"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="F12:G12"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E14">
@@ -9977,7 +9977,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q1048236"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="D1" zoomScale="93" zoomScaleSheetLayoutView="93" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="D1" zoomScale="93" zoomScaleSheetLayoutView="93" workbookViewId="0">
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
@@ -10004,20 +10004,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="198" t="s">
+      <c r="A1" s="186" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="198"/>
-      <c r="C1" s="198"/>
-      <c r="D1" s="198"/>
+      <c r="B1" s="186"/>
+      <c r="C1" s="186"/>
+      <c r="D1" s="186"/>
       <c r="E1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="247" t="str">
+      <c r="F1" s="241" t="str">
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="G1" s="247"/>
+      <c r="G1" s="241"/>
       <c r="H1" s="26" t="s">
         <v>3</v>
       </c>
@@ -10035,28 +10035,28 @@
       <c r="L1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="241" t="str">
+      <c r="M1" s="245" t="str">
         <f>'Update History'!J1</f>
         <v>Tấn Đạt</v>
       </c>
-      <c r="N1" s="242"/>
-      <c r="O1" s="243"/>
+      <c r="N1" s="246"/>
+      <c r="O1" s="247"/>
       <c r="P1" s="47"/>
       <c r="Q1" s="47"/>
     </row>
     <row r="2" spans="1:17" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="198"/>
-      <c r="B2" s="198"/>
-      <c r="C2" s="198"/>
-      <c r="D2" s="198"/>
+      <c r="A2" s="186"/>
+      <c r="B2" s="186"/>
+      <c r="C2" s="186"/>
+      <c r="D2" s="186"/>
       <c r="E2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="247" t="str">
+      <c r="F2" s="241" t="str">
         <f>'Update History'!D2</f>
         <v>ASOFT-CRM</v>
       </c>
-      <c r="G2" s="247"/>
+      <c r="G2" s="241"/>
       <c r="H2" s="26" t="s">
         <v>49</v>
       </c>
@@ -10074,12 +10074,12 @@
       <c r="L2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="241" t="str">
+      <c r="M2" s="245" t="str">
         <f>'Update History'!J2</f>
         <v>06/02/2018</v>
       </c>
-      <c r="N2" s="242"/>
-      <c r="O2" s="243"/>
+      <c r="N2" s="246"/>
+      <c r="O2" s="247"/>
       <c r="P2" s="47"/>
       <c r="Q2" s="47"/>
     </row>
@@ -10143,12 +10143,12 @@
       <c r="F5" s="108" t="s">
         <v>166</v>
       </c>
-      <c r="G5" s="244" t="s">
+      <c r="G5" s="242" t="s">
         <v>205</v>
       </c>
-      <c r="H5" s="245"/>
-      <c r="I5" s="245"/>
-      <c r="J5" s="246"/>
+      <c r="H5" s="243"/>
+      <c r="I5" s="243"/>
+      <c r="J5" s="244"/>
       <c r="K5" s="159" t="s">
         <v>206</v>
       </c>
@@ -10186,12 +10186,12 @@
       <c r="F6" s="108" t="s">
         <v>167</v>
       </c>
-      <c r="G6" s="244" t="s">
+      <c r="G6" s="242" t="s">
         <v>195</v>
       </c>
-      <c r="H6" s="245"/>
-      <c r="I6" s="245"/>
-      <c r="J6" s="246"/>
+      <c r="H6" s="243"/>
+      <c r="I6" s="243"/>
+      <c r="J6" s="244"/>
       <c r="K6" s="160" t="s">
         <v>130</v>
       </c>
@@ -10217,10 +10217,10 @@
       <c r="D7" s="109"/>
       <c r="E7" s="109"/>
       <c r="F7" s="108"/>
-      <c r="G7" s="244"/>
-      <c r="H7" s="245"/>
-      <c r="I7" s="245"/>
-      <c r="J7" s="246"/>
+      <c r="G7" s="242"/>
+      <c r="H7" s="243"/>
+      <c r="I7" s="243"/>
+      <c r="J7" s="244"/>
       <c r="K7" s="116"/>
       <c r="L7" s="116"/>
       <c r="M7" s="66"/>
@@ -10238,10 +10238,10 @@
       <c r="D8" s="109"/>
       <c r="E8" s="109"/>
       <c r="F8" s="108"/>
-      <c r="G8" s="244"/>
-      <c r="H8" s="245"/>
-      <c r="I8" s="245"/>
-      <c r="J8" s="246"/>
+      <c r="G8" s="242"/>
+      <c r="H8" s="243"/>
+      <c r="I8" s="243"/>
+      <c r="J8" s="244"/>
       <c r="K8" s="116"/>
       <c r="L8" s="116"/>
       <c r="M8" s="66"/>
@@ -10259,10 +10259,10 @@
       <c r="D9" s="109"/>
       <c r="E9" s="109"/>
       <c r="F9" s="108"/>
-      <c r="G9" s="244"/>
-      <c r="H9" s="245"/>
-      <c r="I9" s="245"/>
-      <c r="J9" s="246"/>
+      <c r="G9" s="242"/>
+      <c r="H9" s="243"/>
+      <c r="I9" s="243"/>
+      <c r="J9" s="244"/>
       <c r="K9" s="111"/>
       <c r="L9" s="111"/>
       <c r="M9" s="66"/>
@@ -10280,10 +10280,10 @@
       <c r="D10" s="109"/>
       <c r="E10" s="109"/>
       <c r="F10" s="108"/>
-      <c r="G10" s="244"/>
-      <c r="H10" s="245"/>
-      <c r="I10" s="245"/>
-      <c r="J10" s="246"/>
+      <c r="G10" s="242"/>
+      <c r="H10" s="243"/>
+      <c r="I10" s="243"/>
+      <c r="J10" s="244"/>
       <c r="K10" s="116"/>
       <c r="L10" s="116"/>
       <c r="M10" s="66"/>
@@ -10301,10 +10301,10 @@
       <c r="D11" s="109"/>
       <c r="E11" s="109"/>
       <c r="F11" s="108"/>
-      <c r="G11" s="244"/>
-      <c r="H11" s="245"/>
-      <c r="I11" s="245"/>
-      <c r="J11" s="246"/>
+      <c r="G11" s="242"/>
+      <c r="H11" s="243"/>
+      <c r="I11" s="243"/>
+      <c r="J11" s="244"/>
       <c r="K11" s="111"/>
       <c r="L11" s="111"/>
       <c r="M11" s="66"/>
@@ -10320,10 +10320,10 @@
       <c r="D12" s="109"/>
       <c r="E12" s="109"/>
       <c r="F12" s="108"/>
-      <c r="G12" s="244"/>
-      <c r="H12" s="245"/>
-      <c r="I12" s="245"/>
-      <c r="J12" s="246"/>
+      <c r="G12" s="242"/>
+      <c r="H12" s="243"/>
+      <c r="I12" s="243"/>
+      <c r="J12" s="244"/>
       <c r="K12" s="111"/>
       <c r="L12" s="111"/>
       <c r="M12" s="66"/>
@@ -10338,6 +10338,12 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="14">
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="A1:D2"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="F2:G2"/>
@@ -10346,12 +10352,6 @@
     <mergeCell ref="G9:J9"/>
     <mergeCell ref="G5:J5"/>
     <mergeCell ref="G4:J4"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="M1048236:M1048576"/>
@@ -10380,7 +10380,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T115"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A19" zoomScale="106" zoomScaleSheetLayoutView="106" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A22" zoomScale="106" zoomScaleSheetLayoutView="106" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -10397,10 +10397,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="12" customHeight="1">
-      <c r="A1" s="198" t="s">
+      <c r="A1" s="186" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="198"/>
+      <c r="B1" s="186"/>
       <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
@@ -10431,8 +10431,8 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="12" customHeight="1">
-      <c r="A2" s="198"/>
-      <c r="B2" s="198"/>
+      <c r="A2" s="186"/>
+      <c r="B2" s="186"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
       </c>
@@ -12146,7 +12146,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23:D24"/>
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -12162,10 +12162,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="198" t="s">
+      <c r="A1" s="186" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="198"/>
+      <c r="B1" s="186"/>
       <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
@@ -12196,8 +12196,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="198"/>
-      <c r="B2" s="198"/>
+      <c r="A2" s="186"/>
+      <c r="B2" s="186"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
       </c>

--- a/2018/CRM/03_DetailDesign/CRMF2083_Cập nhật xử lý công việc.xlsx
+++ b/2018/CRM/03_DetailDesign/CRMF2083_Cập nhật xử lý công việc.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="836" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="836" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Coverpage" sheetId="20" r:id="rId1"/>
@@ -2094,9 +2094,12 @@
     <t>00ML000092</t>
   </si>
   <si>
-    <t>Insert Into CRMT2083 (APK, DivisionID, Description, AssignUserID, RealDate, WorkTime, CreateDate, CreateUserID, RequestID) 
+    <t>Combo Người xử lý thực thi SQL002</t>
+  </si>
+  <si>
+    <t>Insert Into CRMT2083 (APK, DivisionID, Description, AssignUserID, RealDate, WorkTime, CreateDate, CreateUserID, ReleatedToTypeID, ReleatedToID) 
 Value
-(@APK, @DivisionID, @Description, @AssignUserID, @RealDate, @WorkTime, @ CreateDate, @CreateUserID, @RequestID)</t>
+(@APK, @DivisionID, @Description, @AssignUserID, @RealDate, @WorkTime, @ CreateDate, @CreateUserID, @ReleatedToTypeID, @ReleatedToID)</t>
   </si>
   <si>
     <t>@APK, 
@@ -2105,7 +2108,7 @@
 @RealDate, 
 @WorkTime,
 @CreateDate, @CreateUserID,
-@RequestID</t>
+@ReleatedToTypeID, @ReleatedToID</t>
   </si>
   <si>
     <t>NewID(),
@@ -2116,13 +2119,10 @@
 @WorkTime,
 @CreateDate, 
 @CreateUserID,
-@RequestID</t>
-  </si>
-  <si>
-    <t>Combo Người xử lý thực thi SQL002</t>
-  </si>
-  <si>
-    <t>Biến @RequestID lấy từ Form CRMF2082</t>
+@ReleatedToTypeID, @ReleatedToID</t>
+  </si>
+  <si>
+    <t>Biến @ReleatedToTypeID, @ReleatedToID  lấy từ Form CRMF2082</t>
   </si>
 </sst>
 </file>
@@ -3059,9 +3059,27 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3107,23 +3125,41 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="24" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="24" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3143,42 +3179,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3269,47 +3269,47 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="11" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -6131,65 +6131,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="27" customHeight="1">
-      <c r="A1" s="169"/>
-      <c r="B1" s="169"/>
-      <c r="C1" s="171" t="s">
+      <c r="A1" s="175"/>
+      <c r="B1" s="175"/>
+      <c r="C1" s="177" t="s">
         <v>151</v>
       </c>
-      <c r="D1" s="172"/>
-      <c r="E1" s="172"/>
-      <c r="F1" s="173"/>
-      <c r="G1" s="170" t="s">
+      <c r="D1" s="178"/>
+      <c r="E1" s="178"/>
+      <c r="F1" s="179"/>
+      <c r="G1" s="176" t="s">
         <v>147</v>
       </c>
-      <c r="H1" s="170"/>
-      <c r="I1" s="170" t="s">
+      <c r="H1" s="176"/>
+      <c r="I1" s="176" t="s">
         <v>148</v>
       </c>
-      <c r="J1" s="170"/>
+      <c r="J1" s="176"/>
     </row>
     <row r="2" spans="1:18" ht="23.25" customHeight="1">
-      <c r="A2" s="169"/>
-      <c r="B2" s="169"/>
-      <c r="C2" s="174"/>
-      <c r="D2" s="175"/>
-      <c r="E2" s="175"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="170" t="s">
+      <c r="A2" s="175"/>
+      <c r="B2" s="175"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="181"/>
+      <c r="E2" s="181"/>
+      <c r="F2" s="182"/>
+      <c r="G2" s="176" t="s">
         <v>149</v>
       </c>
-      <c r="H2" s="170"/>
-      <c r="I2" s="170"/>
-      <c r="J2" s="170"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
+      <c r="J2" s="176"/>
     </row>
     <row r="3" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A3" s="169"/>
-      <c r="B3" s="169"/>
-      <c r="C3" s="177"/>
-      <c r="D3" s="178"/>
-      <c r="E3" s="178"/>
-      <c r="F3" s="179"/>
-      <c r="G3" s="166" t="s">
+      <c r="A3" s="175"/>
+      <c r="B3" s="175"/>
+      <c r="C3" s="183"/>
+      <c r="D3" s="184"/>
+      <c r="E3" s="184"/>
+      <c r="F3" s="185"/>
+      <c r="G3" s="172" t="s">
         <v>150</v>
       </c>
-      <c r="H3" s="167"/>
-      <c r="I3" s="166"/>
-      <c r="J3" s="167"/>
+      <c r="H3" s="173"/>
+      <c r="I3" s="172"/>
+      <c r="J3" s="173"/>
     </row>
     <row r="4" spans="1:18">
       <c r="H4" s="92"/>
     </row>
     <row r="13" spans="1:18" ht="30">
-      <c r="A13" s="168"/>
-      <c r="B13" s="168"/>
-      <c r="C13" s="168"/>
-      <c r="D13" s="168"/>
-      <c r="E13" s="168"/>
-      <c r="F13" s="168"/>
-      <c r="G13" s="168"/>
-      <c r="H13" s="168"/>
-      <c r="I13" s="168"/>
-      <c r="J13" s="168"/>
+      <c r="A13" s="174"/>
+      <c r="B13" s="174"/>
+      <c r="C13" s="174"/>
+      <c r="D13" s="174"/>
+      <c r="E13" s="174"/>
+      <c r="F13" s="174"/>
+      <c r="G13" s="174"/>
+      <c r="H13" s="174"/>
+      <c r="I13" s="174"/>
+      <c r="J13" s="174"/>
       <c r="K13" s="93"/>
       <c r="L13" s="93"/>
       <c r="M13" s="93"/>
@@ -6200,56 +6200,56 @@
       <c r="R13" s="93"/>
     </row>
     <row r="14" spans="1:18" ht="26.25">
-      <c r="B14" s="164"/>
-      <c r="C14" s="164"/>
-      <c r="D14" s="164"/>
-      <c r="E14" s="164"/>
-      <c r="F14" s="164"/>
-      <c r="G14" s="164"/>
-      <c r="H14" s="164"/>
-      <c r="I14" s="164"/>
-      <c r="J14" s="164"/>
-      <c r="K14" s="164"/>
-      <c r="L14" s="164"/>
-      <c r="M14" s="164"/>
-      <c r="N14" s="164"/>
-      <c r="O14" s="164"/>
-      <c r="P14" s="164"/>
-      <c r="Q14" s="164"/>
-      <c r="R14" s="164"/>
+      <c r="B14" s="168"/>
+      <c r="C14" s="168"/>
+      <c r="D14" s="168"/>
+      <c r="E14" s="168"/>
+      <c r="F14" s="168"/>
+      <c r="G14" s="168"/>
+      <c r="H14" s="168"/>
+      <c r="I14" s="168"/>
+      <c r="J14" s="168"/>
+      <c r="K14" s="168"/>
+      <c r="L14" s="168"/>
+      <c r="M14" s="168"/>
+      <c r="N14" s="168"/>
+      <c r="O14" s="168"/>
+      <c r="P14" s="168"/>
+      <c r="Q14" s="168"/>
+      <c r="R14" s="168"/>
     </row>
     <row r="15" spans="1:18" ht="26.25">
-      <c r="B15" s="164"/>
-      <c r="C15" s="164"/>
-      <c r="D15" s="164"/>
-      <c r="E15" s="164"/>
-      <c r="F15" s="164"/>
-      <c r="G15" s="164"/>
-      <c r="H15" s="164"/>
-      <c r="I15" s="164"/>
-      <c r="J15" s="164"/>
-      <c r="K15" s="164"/>
-      <c r="L15" s="164"/>
-      <c r="M15" s="164"/>
-      <c r="N15" s="164"/>
-      <c r="O15" s="164"/>
-      <c r="P15" s="164"/>
-      <c r="Q15" s="164"/>
-      <c r="R15" s="164"/>
+      <c r="B15" s="168"/>
+      <c r="C15" s="168"/>
+      <c r="D15" s="168"/>
+      <c r="E15" s="168"/>
+      <c r="F15" s="168"/>
+      <c r="G15" s="168"/>
+      <c r="H15" s="168"/>
+      <c r="I15" s="168"/>
+      <c r="J15" s="168"/>
+      <c r="K15" s="168"/>
+      <c r="L15" s="168"/>
+      <c r="M15" s="168"/>
+      <c r="N15" s="168"/>
+      <c r="O15" s="168"/>
+      <c r="P15" s="168"/>
+      <c r="Q15" s="168"/>
+      <c r="R15" s="168"/>
     </row>
     <row r="16" spans="1:18" ht="26.25">
-      <c r="A16" s="165" t="s">
+      <c r="A16" s="171" t="s">
         <v>151</v>
       </c>
-      <c r="B16" s="165"/>
-      <c r="C16" s="165"/>
-      <c r="D16" s="165"/>
-      <c r="E16" s="165"/>
-      <c r="F16" s="165"/>
-      <c r="G16" s="165"/>
-      <c r="H16" s="165"/>
-      <c r="I16" s="165"/>
-      <c r="J16" s="165"/>
+      <c r="B16" s="171"/>
+      <c r="C16" s="171"/>
+      <c r="D16" s="171"/>
+      <c r="E16" s="171"/>
+      <c r="F16" s="171"/>
+      <c r="G16" s="171"/>
+      <c r="H16" s="171"/>
+      <c r="I16" s="171"/>
+      <c r="J16" s="171"/>
       <c r="K16" s="94"/>
       <c r="L16" s="94"/>
       <c r="M16" s="94"/>
@@ -6260,384 +6260,384 @@
       <c r="R16" s="94"/>
     </row>
     <row r="17" spans="1:195" ht="14.1" customHeight="1">
-      <c r="B17" s="164"/>
-      <c r="C17" s="164"/>
-      <c r="D17" s="164"/>
-      <c r="E17" s="164"/>
-      <c r="F17" s="164"/>
-      <c r="G17" s="164"/>
-      <c r="H17" s="164"/>
-      <c r="I17" s="164"/>
-      <c r="J17" s="164"/>
-      <c r="K17" s="164"/>
-      <c r="L17" s="164"/>
-      <c r="M17" s="164"/>
-      <c r="N17" s="164"/>
-      <c r="O17" s="164"/>
-      <c r="P17" s="164"/>
-      <c r="Q17" s="164"/>
-      <c r="R17" s="164"/>
+      <c r="B17" s="168"/>
+      <c r="C17" s="168"/>
+      <c r="D17" s="168"/>
+      <c r="E17" s="168"/>
+      <c r="F17" s="168"/>
+      <c r="G17" s="168"/>
+      <c r="H17" s="168"/>
+      <c r="I17" s="168"/>
+      <c r="J17" s="168"/>
+      <c r="K17" s="168"/>
+      <c r="L17" s="168"/>
+      <c r="M17" s="168"/>
+      <c r="N17" s="168"/>
+      <c r="O17" s="168"/>
+      <c r="P17" s="168"/>
+      <c r="Q17" s="168"/>
+      <c r="R17" s="168"/>
     </row>
     <row r="18" spans="1:195" ht="26.25">
-      <c r="B18" s="164"/>
-      <c r="C18" s="164"/>
-      <c r="D18" s="164"/>
-      <c r="E18" s="164"/>
-      <c r="F18" s="164"/>
-      <c r="G18" s="164"/>
-      <c r="H18" s="164"/>
-      <c r="I18" s="164"/>
-      <c r="J18" s="164"/>
-      <c r="K18" s="164"/>
-      <c r="L18" s="164"/>
-      <c r="M18" s="164"/>
-      <c r="N18" s="164"/>
-      <c r="O18" s="164"/>
-      <c r="P18" s="164"/>
-      <c r="Q18" s="164"/>
-      <c r="R18" s="164"/>
+      <c r="B18" s="168"/>
+      <c r="C18" s="168"/>
+      <c r="D18" s="168"/>
+      <c r="E18" s="168"/>
+      <c r="F18" s="168"/>
+      <c r="G18" s="168"/>
+      <c r="H18" s="168"/>
+      <c r="I18" s="168"/>
+      <c r="J18" s="168"/>
+      <c r="K18" s="168"/>
+      <c r="L18" s="168"/>
+      <c r="M18" s="168"/>
+      <c r="N18" s="168"/>
+      <c r="O18" s="168"/>
+      <c r="P18" s="168"/>
+      <c r="Q18" s="168"/>
+      <c r="R18" s="168"/>
     </row>
     <row r="19" spans="1:195" ht="23.25">
-      <c r="B19" s="181"/>
-      <c r="C19" s="181"/>
-      <c r="D19" s="181"/>
-      <c r="E19" s="181"/>
-      <c r="F19" s="181"/>
-      <c r="G19" s="181"/>
-      <c r="H19" s="181"/>
-      <c r="I19" s="181"/>
-      <c r="J19" s="181"/>
-      <c r="K19" s="181"/>
-      <c r="L19" s="181"/>
-      <c r="M19" s="181"/>
-      <c r="N19" s="181"/>
-      <c r="O19" s="181"/>
-      <c r="P19" s="181"/>
-      <c r="Q19" s="181"/>
-      <c r="R19" s="181"/>
+      <c r="B19" s="170"/>
+      <c r="C19" s="170"/>
+      <c r="D19" s="170"/>
+      <c r="E19" s="170"/>
+      <c r="F19" s="170"/>
+      <c r="G19" s="170"/>
+      <c r="H19" s="170"/>
+      <c r="I19" s="170"/>
+      <c r="J19" s="170"/>
+      <c r="K19" s="170"/>
+      <c r="L19" s="170"/>
+      <c r="M19" s="170"/>
+      <c r="N19" s="170"/>
+      <c r="O19" s="170"/>
+      <c r="P19" s="170"/>
+      <c r="Q19" s="170"/>
+      <c r="R19" s="170"/>
     </row>
     <row r="20" spans="1:195" ht="26.25">
-      <c r="B20" s="164"/>
-      <c r="C20" s="164"/>
-      <c r="D20" s="164"/>
-      <c r="E20" s="164"/>
-      <c r="F20" s="164"/>
-      <c r="G20" s="164"/>
-      <c r="H20" s="164"/>
-      <c r="I20" s="164"/>
-      <c r="J20" s="164"/>
-      <c r="K20" s="164"/>
-      <c r="L20" s="164"/>
-      <c r="M20" s="164"/>
-      <c r="N20" s="164"/>
-      <c r="O20" s="164"/>
-      <c r="P20" s="164"/>
-      <c r="Q20" s="164"/>
-      <c r="R20" s="164"/>
+      <c r="B20" s="168"/>
+      <c r="C20" s="168"/>
+      <c r="D20" s="168"/>
+      <c r="E20" s="168"/>
+      <c r="F20" s="168"/>
+      <c r="G20" s="168"/>
+      <c r="H20" s="168"/>
+      <c r="I20" s="168"/>
+      <c r="J20" s="168"/>
+      <c r="K20" s="168"/>
+      <c r="L20" s="168"/>
+      <c r="M20" s="168"/>
+      <c r="N20" s="168"/>
+      <c r="O20" s="168"/>
+      <c r="P20" s="168"/>
+      <c r="Q20" s="168"/>
+      <c r="R20" s="168"/>
     </row>
     <row r="21" spans="1:195" ht="26.25">
-      <c r="B21" s="164"/>
-      <c r="C21" s="164"/>
-      <c r="D21" s="164"/>
-      <c r="E21" s="164"/>
-      <c r="F21" s="164"/>
-      <c r="G21" s="164"/>
-      <c r="H21" s="164"/>
-      <c r="I21" s="164"/>
-      <c r="J21" s="164"/>
-      <c r="K21" s="164"/>
-      <c r="L21" s="164"/>
-      <c r="M21" s="164"/>
-      <c r="N21" s="164"/>
-      <c r="O21" s="164"/>
-      <c r="P21" s="164"/>
-      <c r="Q21" s="164"/>
-      <c r="R21" s="164"/>
+      <c r="B21" s="168"/>
+      <c r="C21" s="168"/>
+      <c r="D21" s="168"/>
+      <c r="E21" s="168"/>
+      <c r="F21" s="168"/>
+      <c r="G21" s="168"/>
+      <c r="H21" s="168"/>
+      <c r="I21" s="168"/>
+      <c r="J21" s="168"/>
+      <c r="K21" s="168"/>
+      <c r="L21" s="168"/>
+      <c r="M21" s="168"/>
+      <c r="N21" s="168"/>
+      <c r="O21" s="168"/>
+      <c r="P21" s="168"/>
+      <c r="Q21" s="168"/>
+      <c r="R21" s="168"/>
     </row>
     <row r="22" spans="1:195" ht="25.5">
-      <c r="B22" s="180"/>
-      <c r="C22" s="180"/>
-      <c r="D22" s="180"/>
-      <c r="E22" s="180"/>
-      <c r="F22" s="180"/>
-      <c r="G22" s="180"/>
-      <c r="H22" s="180"/>
-      <c r="I22" s="180"/>
-      <c r="J22" s="180"/>
-      <c r="K22" s="180"/>
-      <c r="L22" s="180"/>
-      <c r="M22" s="180"/>
-      <c r="N22" s="180"/>
-      <c r="O22" s="180"/>
-      <c r="P22" s="180"/>
-      <c r="Q22" s="180"/>
-      <c r="R22" s="180"/>
+      <c r="B22" s="169"/>
+      <c r="C22" s="169"/>
+      <c r="D22" s="169"/>
+      <c r="E22" s="169"/>
+      <c r="F22" s="169"/>
+      <c r="G22" s="169"/>
+      <c r="H22" s="169"/>
+      <c r="I22" s="169"/>
+      <c r="J22" s="169"/>
+      <c r="K22" s="169"/>
+      <c r="L22" s="169"/>
+      <c r="M22" s="169"/>
+      <c r="N22" s="169"/>
+      <c r="O22" s="169"/>
+      <c r="P22" s="169"/>
+      <c r="Q22" s="169"/>
+      <c r="R22" s="169"/>
     </row>
     <row r="23" spans="1:195" ht="25.5">
-      <c r="B23" s="180"/>
-      <c r="C23" s="180"/>
-      <c r="D23" s="180"/>
-      <c r="E23" s="180"/>
-      <c r="F23" s="180"/>
-      <c r="G23" s="180"/>
-      <c r="H23" s="180"/>
-      <c r="I23" s="180"/>
-      <c r="J23" s="180"/>
-      <c r="K23" s="180"/>
-      <c r="L23" s="180"/>
-      <c r="M23" s="180"/>
-      <c r="N23" s="180"/>
-      <c r="O23" s="180"/>
-      <c r="P23" s="180"/>
-      <c r="Q23" s="180"/>
-      <c r="R23" s="180"/>
+      <c r="B23" s="169"/>
+      <c r="C23" s="169"/>
+      <c r="D23" s="169"/>
+      <c r="E23" s="169"/>
+      <c r="F23" s="169"/>
+      <c r="G23" s="169"/>
+      <c r="H23" s="169"/>
+      <c r="I23" s="169"/>
+      <c r="J23" s="169"/>
+      <c r="K23" s="169"/>
+      <c r="L23" s="169"/>
+      <c r="M23" s="169"/>
+      <c r="N23" s="169"/>
+      <c r="O23" s="169"/>
+      <c r="P23" s="169"/>
+      <c r="Q23" s="169"/>
+      <c r="R23" s="169"/>
     </row>
     <row r="25" spans="1:195" ht="11.25" customHeight="1"/>
     <row r="26" spans="1:195" ht="18">
-      <c r="B26" s="182"/>
-      <c r="C26" s="182"/>
-      <c r="D26" s="182"/>
-      <c r="E26" s="182"/>
-      <c r="F26" s="182"/>
-      <c r="G26" s="182"/>
-      <c r="H26" s="182"/>
-      <c r="I26" s="182"/>
-      <c r="J26" s="182"/>
-      <c r="K26" s="182"/>
-      <c r="L26" s="182"/>
-      <c r="M26" s="182"/>
-      <c r="N26" s="182"/>
-      <c r="O26" s="182"/>
-      <c r="P26" s="182"/>
-      <c r="Q26" s="182"/>
-      <c r="R26" s="182"/>
+      <c r="B26" s="166"/>
+      <c r="C26" s="166"/>
+      <c r="D26" s="166"/>
+      <c r="E26" s="166"/>
+      <c r="F26" s="166"/>
+      <c r="G26" s="166"/>
+      <c r="H26" s="166"/>
+      <c r="I26" s="166"/>
+      <c r="J26" s="166"/>
+      <c r="K26" s="166"/>
+      <c r="L26" s="166"/>
+      <c r="M26" s="166"/>
+      <c r="N26" s="166"/>
+      <c r="O26" s="166"/>
+      <c r="P26" s="166"/>
+      <c r="Q26" s="166"/>
+      <c r="R26" s="166"/>
     </row>
     <row r="28" spans="1:195" ht="18">
-      <c r="B28" s="184"/>
-      <c r="C28" s="184"/>
-      <c r="D28" s="184"/>
-      <c r="E28" s="184"/>
-      <c r="F28" s="184"/>
-      <c r="G28" s="184"/>
-      <c r="H28" s="184"/>
-      <c r="I28" s="184"/>
-      <c r="J28" s="184"/>
-      <c r="K28" s="184"/>
-      <c r="L28" s="184"/>
-      <c r="M28" s="184"/>
-      <c r="N28" s="184"/>
-      <c r="O28" s="184"/>
-      <c r="P28" s="184"/>
-      <c r="Q28" s="184"/>
-      <c r="R28" s="184"/>
-      <c r="S28" s="183"/>
-      <c r="T28" s="183"/>
-      <c r="U28" s="183"/>
-      <c r="V28" s="183"/>
-      <c r="W28" s="183"/>
-      <c r="X28" s="183"/>
-      <c r="Y28" s="183"/>
-      <c r="Z28" s="183"/>
-      <c r="AA28" s="183"/>
-      <c r="AB28" s="183"/>
-      <c r="AC28" s="183"/>
-      <c r="AD28" s="183"/>
-      <c r="AE28" s="183"/>
-      <c r="AF28" s="183"/>
-      <c r="AG28" s="183"/>
-      <c r="AH28" s="183"/>
-      <c r="AI28" s="183"/>
-      <c r="AJ28" s="183"/>
-      <c r="AK28" s="183"/>
-      <c r="AL28" s="183"/>
-      <c r="AM28" s="183"/>
-      <c r="AN28" s="183"/>
-      <c r="AO28" s="183"/>
-      <c r="AP28" s="183"/>
-      <c r="AQ28" s="183"/>
-      <c r="AR28" s="183"/>
-      <c r="AS28" s="183"/>
-      <c r="AT28" s="183"/>
-      <c r="AU28" s="183"/>
-      <c r="AV28" s="183"/>
-      <c r="AW28" s="183"/>
-      <c r="AX28" s="183"/>
-      <c r="AY28" s="183"/>
-      <c r="AZ28" s="183"/>
-      <c r="BA28" s="183"/>
-      <c r="BB28" s="183"/>
-      <c r="BC28" s="183"/>
-      <c r="BD28" s="183"/>
-      <c r="BE28" s="183"/>
-      <c r="BF28" s="183"/>
-      <c r="BG28" s="183"/>
-      <c r="BH28" s="183"/>
-      <c r="BI28" s="183"/>
-      <c r="BJ28" s="183"/>
-      <c r="BK28" s="183"/>
-      <c r="BL28" s="183"/>
-      <c r="BM28" s="183"/>
-      <c r="BN28" s="183"/>
-      <c r="BO28" s="183"/>
-      <c r="BP28" s="183"/>
-      <c r="BQ28" s="183"/>
-      <c r="BR28" s="183"/>
-      <c r="BS28" s="183"/>
-      <c r="BT28" s="183"/>
-      <c r="BU28" s="183"/>
-      <c r="BV28" s="183"/>
-      <c r="BW28" s="183"/>
-      <c r="BX28" s="183"/>
-      <c r="BY28" s="183"/>
-      <c r="BZ28" s="183"/>
-      <c r="CA28" s="183"/>
-      <c r="CB28" s="183"/>
-      <c r="CC28" s="183"/>
-      <c r="CD28" s="183"/>
-      <c r="CE28" s="183"/>
-      <c r="CF28" s="183"/>
-      <c r="CG28" s="183"/>
-      <c r="CH28" s="183"/>
-      <c r="CI28" s="183"/>
-      <c r="CJ28" s="183"/>
-      <c r="CK28" s="183"/>
-      <c r="CL28" s="183"/>
-      <c r="CM28" s="183"/>
-      <c r="CN28" s="183"/>
-      <c r="CO28" s="183"/>
-      <c r="CP28" s="183"/>
-      <c r="CQ28" s="183"/>
-      <c r="CR28" s="183"/>
-      <c r="CS28" s="183"/>
-      <c r="CT28" s="183"/>
-      <c r="CU28" s="183"/>
-      <c r="CV28" s="183"/>
-      <c r="CW28" s="183"/>
-      <c r="CX28" s="183"/>
-      <c r="CY28" s="183"/>
-      <c r="CZ28" s="183"/>
-      <c r="DA28" s="183"/>
-      <c r="DB28" s="183"/>
-      <c r="DC28" s="183"/>
-      <c r="DD28" s="183"/>
-      <c r="DE28" s="183"/>
-      <c r="DF28" s="183"/>
-      <c r="DG28" s="183"/>
-      <c r="DH28" s="183"/>
-      <c r="DI28" s="183"/>
-      <c r="DJ28" s="183"/>
-      <c r="DK28" s="183"/>
-      <c r="DL28" s="183"/>
-      <c r="DM28" s="183"/>
-      <c r="DN28" s="183"/>
-      <c r="DO28" s="183"/>
-      <c r="DP28" s="183"/>
-      <c r="DQ28" s="183"/>
-      <c r="DR28" s="183"/>
-      <c r="DS28" s="183"/>
-      <c r="DT28" s="183"/>
-      <c r="DU28" s="183"/>
-      <c r="DV28" s="183"/>
-      <c r="DW28" s="183"/>
-      <c r="DX28" s="183"/>
-      <c r="DY28" s="183"/>
-      <c r="DZ28" s="183"/>
-      <c r="EA28" s="183"/>
-      <c r="EB28" s="183"/>
-      <c r="EC28" s="183"/>
-      <c r="ED28" s="183"/>
-      <c r="EE28" s="183"/>
-      <c r="EF28" s="183"/>
-      <c r="EG28" s="183"/>
-      <c r="EH28" s="183"/>
-      <c r="EI28" s="183"/>
-      <c r="EJ28" s="183"/>
-      <c r="EK28" s="183"/>
-      <c r="EL28" s="183"/>
-      <c r="EM28" s="183"/>
-      <c r="EN28" s="183"/>
-      <c r="EO28" s="183"/>
-      <c r="EP28" s="183"/>
-      <c r="EQ28" s="183"/>
-      <c r="ER28" s="183"/>
-      <c r="ES28" s="183"/>
-      <c r="ET28" s="183"/>
-      <c r="EU28" s="183"/>
-      <c r="EV28" s="183"/>
-      <c r="EW28" s="183"/>
-      <c r="EX28" s="183"/>
-      <c r="EY28" s="183"/>
-      <c r="EZ28" s="183"/>
-      <c r="FA28" s="183"/>
-      <c r="FB28" s="183"/>
-      <c r="FC28" s="183"/>
-      <c r="FD28" s="183"/>
-      <c r="FE28" s="183"/>
-      <c r="FF28" s="183"/>
-      <c r="FG28" s="183"/>
-      <c r="FH28" s="183"/>
-      <c r="FI28" s="183"/>
-      <c r="FJ28" s="183"/>
-      <c r="FK28" s="183"/>
-      <c r="FL28" s="183"/>
-      <c r="FM28" s="183"/>
-      <c r="FN28" s="183"/>
-      <c r="FO28" s="183"/>
-      <c r="FP28" s="183"/>
-      <c r="FQ28" s="183"/>
-      <c r="FR28" s="183"/>
-      <c r="FS28" s="183"/>
-      <c r="FT28" s="183"/>
-      <c r="FU28" s="183"/>
-      <c r="FV28" s="183"/>
-      <c r="FW28" s="183"/>
-      <c r="FX28" s="183"/>
-      <c r="FY28" s="183"/>
-      <c r="FZ28" s="183"/>
-      <c r="GA28" s="183"/>
-      <c r="GB28" s="183"/>
-      <c r="GC28" s="183"/>
-      <c r="GD28" s="183"/>
-      <c r="GE28" s="183"/>
-      <c r="GF28" s="183"/>
-      <c r="GG28" s="183"/>
-      <c r="GH28" s="183"/>
-      <c r="GI28" s="183"/>
-      <c r="GJ28" s="183"/>
-      <c r="GK28" s="183"/>
-      <c r="GL28" s="183"/>
+      <c r="B28" s="167"/>
+      <c r="C28" s="167"/>
+      <c r="D28" s="167"/>
+      <c r="E28" s="167"/>
+      <c r="F28" s="167"/>
+      <c r="G28" s="167"/>
+      <c r="H28" s="167"/>
+      <c r="I28" s="167"/>
+      <c r="J28" s="167"/>
+      <c r="K28" s="167"/>
+      <c r="L28" s="167"/>
+      <c r="M28" s="167"/>
+      <c r="N28" s="167"/>
+      <c r="O28" s="167"/>
+      <c r="P28" s="167"/>
+      <c r="Q28" s="167"/>
+      <c r="R28" s="167"/>
+      <c r="S28" s="165"/>
+      <c r="T28" s="165"/>
+      <c r="U28" s="165"/>
+      <c r="V28" s="165"/>
+      <c r="W28" s="165"/>
+      <c r="X28" s="165"/>
+      <c r="Y28" s="165"/>
+      <c r="Z28" s="165"/>
+      <c r="AA28" s="165"/>
+      <c r="AB28" s="165"/>
+      <c r="AC28" s="165"/>
+      <c r="AD28" s="165"/>
+      <c r="AE28" s="165"/>
+      <c r="AF28" s="165"/>
+      <c r="AG28" s="165"/>
+      <c r="AH28" s="165"/>
+      <c r="AI28" s="165"/>
+      <c r="AJ28" s="165"/>
+      <c r="AK28" s="165"/>
+      <c r="AL28" s="165"/>
+      <c r="AM28" s="165"/>
+      <c r="AN28" s="165"/>
+      <c r="AO28" s="165"/>
+      <c r="AP28" s="165"/>
+      <c r="AQ28" s="165"/>
+      <c r="AR28" s="165"/>
+      <c r="AS28" s="165"/>
+      <c r="AT28" s="165"/>
+      <c r="AU28" s="165"/>
+      <c r="AV28" s="165"/>
+      <c r="AW28" s="165"/>
+      <c r="AX28" s="165"/>
+      <c r="AY28" s="165"/>
+      <c r="AZ28" s="165"/>
+      <c r="BA28" s="165"/>
+      <c r="BB28" s="165"/>
+      <c r="BC28" s="165"/>
+      <c r="BD28" s="165"/>
+      <c r="BE28" s="165"/>
+      <c r="BF28" s="165"/>
+      <c r="BG28" s="165"/>
+      <c r="BH28" s="165"/>
+      <c r="BI28" s="165"/>
+      <c r="BJ28" s="165"/>
+      <c r="BK28" s="165"/>
+      <c r="BL28" s="165"/>
+      <c r="BM28" s="165"/>
+      <c r="BN28" s="165"/>
+      <c r="BO28" s="165"/>
+      <c r="BP28" s="165"/>
+      <c r="BQ28" s="165"/>
+      <c r="BR28" s="165"/>
+      <c r="BS28" s="165"/>
+      <c r="BT28" s="165"/>
+      <c r="BU28" s="165"/>
+      <c r="BV28" s="165"/>
+      <c r="BW28" s="165"/>
+      <c r="BX28" s="165"/>
+      <c r="BY28" s="165"/>
+      <c r="BZ28" s="165"/>
+      <c r="CA28" s="165"/>
+      <c r="CB28" s="165"/>
+      <c r="CC28" s="165"/>
+      <c r="CD28" s="165"/>
+      <c r="CE28" s="165"/>
+      <c r="CF28" s="165"/>
+      <c r="CG28" s="165"/>
+      <c r="CH28" s="165"/>
+      <c r="CI28" s="165"/>
+      <c r="CJ28" s="165"/>
+      <c r="CK28" s="165"/>
+      <c r="CL28" s="165"/>
+      <c r="CM28" s="165"/>
+      <c r="CN28" s="165"/>
+      <c r="CO28" s="165"/>
+      <c r="CP28" s="165"/>
+      <c r="CQ28" s="165"/>
+      <c r="CR28" s="165"/>
+      <c r="CS28" s="165"/>
+      <c r="CT28" s="165"/>
+      <c r="CU28" s="165"/>
+      <c r="CV28" s="165"/>
+      <c r="CW28" s="165"/>
+      <c r="CX28" s="165"/>
+      <c r="CY28" s="165"/>
+      <c r="CZ28" s="165"/>
+      <c r="DA28" s="165"/>
+      <c r="DB28" s="165"/>
+      <c r="DC28" s="165"/>
+      <c r="DD28" s="165"/>
+      <c r="DE28" s="165"/>
+      <c r="DF28" s="165"/>
+      <c r="DG28" s="165"/>
+      <c r="DH28" s="165"/>
+      <c r="DI28" s="165"/>
+      <c r="DJ28" s="165"/>
+      <c r="DK28" s="165"/>
+      <c r="DL28" s="165"/>
+      <c r="DM28" s="165"/>
+      <c r="DN28" s="165"/>
+      <c r="DO28" s="165"/>
+      <c r="DP28" s="165"/>
+      <c r="DQ28" s="165"/>
+      <c r="DR28" s="165"/>
+      <c r="DS28" s="165"/>
+      <c r="DT28" s="165"/>
+      <c r="DU28" s="165"/>
+      <c r="DV28" s="165"/>
+      <c r="DW28" s="165"/>
+      <c r="DX28" s="165"/>
+      <c r="DY28" s="165"/>
+      <c r="DZ28" s="165"/>
+      <c r="EA28" s="165"/>
+      <c r="EB28" s="165"/>
+      <c r="EC28" s="165"/>
+      <c r="ED28" s="165"/>
+      <c r="EE28" s="165"/>
+      <c r="EF28" s="165"/>
+      <c r="EG28" s="165"/>
+      <c r="EH28" s="165"/>
+      <c r="EI28" s="165"/>
+      <c r="EJ28" s="165"/>
+      <c r="EK28" s="165"/>
+      <c r="EL28" s="165"/>
+      <c r="EM28" s="165"/>
+      <c r="EN28" s="165"/>
+      <c r="EO28" s="165"/>
+      <c r="EP28" s="165"/>
+      <c r="EQ28" s="165"/>
+      <c r="ER28" s="165"/>
+      <c r="ES28" s="165"/>
+      <c r="ET28" s="165"/>
+      <c r="EU28" s="165"/>
+      <c r="EV28" s="165"/>
+      <c r="EW28" s="165"/>
+      <c r="EX28" s="165"/>
+      <c r="EY28" s="165"/>
+      <c r="EZ28" s="165"/>
+      <c r="FA28" s="165"/>
+      <c r="FB28" s="165"/>
+      <c r="FC28" s="165"/>
+      <c r="FD28" s="165"/>
+      <c r="FE28" s="165"/>
+      <c r="FF28" s="165"/>
+      <c r="FG28" s="165"/>
+      <c r="FH28" s="165"/>
+      <c r="FI28" s="165"/>
+      <c r="FJ28" s="165"/>
+      <c r="FK28" s="165"/>
+      <c r="FL28" s="165"/>
+      <c r="FM28" s="165"/>
+      <c r="FN28" s="165"/>
+      <c r="FO28" s="165"/>
+      <c r="FP28" s="165"/>
+      <c r="FQ28" s="165"/>
+      <c r="FR28" s="165"/>
+      <c r="FS28" s="165"/>
+      <c r="FT28" s="165"/>
+      <c r="FU28" s="165"/>
+      <c r="FV28" s="165"/>
+      <c r="FW28" s="165"/>
+      <c r="FX28" s="165"/>
+      <c r="FY28" s="165"/>
+      <c r="FZ28" s="165"/>
+      <c r="GA28" s="165"/>
+      <c r="GB28" s="165"/>
+      <c r="GC28" s="165"/>
+      <c r="GD28" s="165"/>
+      <c r="GE28" s="165"/>
+      <c r="GF28" s="165"/>
+      <c r="GG28" s="165"/>
+      <c r="GH28" s="165"/>
+      <c r="GI28" s="165"/>
+      <c r="GJ28" s="165"/>
+      <c r="GK28" s="165"/>
+      <c r="GL28" s="165"/>
       <c r="GM28" s="95"/>
     </row>
     <row r="29" spans="1:195" ht="18">
-      <c r="B29" s="182"/>
-      <c r="C29" s="182"/>
-      <c r="D29" s="182"/>
-      <c r="E29" s="182"/>
-      <c r="F29" s="182"/>
-      <c r="G29" s="182"/>
-      <c r="H29" s="182"/>
-      <c r="I29" s="182"/>
-      <c r="J29" s="182"/>
-      <c r="K29" s="182"/>
-      <c r="L29" s="182"/>
-      <c r="M29" s="182"/>
-      <c r="N29" s="182"/>
-      <c r="O29" s="182"/>
-      <c r="P29" s="182"/>
-      <c r="Q29" s="182"/>
-      <c r="R29" s="182"/>
+      <c r="B29" s="166"/>
+      <c r="C29" s="166"/>
+      <c r="D29" s="166"/>
+      <c r="E29" s="166"/>
+      <c r="F29" s="166"/>
+      <c r="G29" s="166"/>
+      <c r="H29" s="166"/>
+      <c r="I29" s="166"/>
+      <c r="J29" s="166"/>
+      <c r="K29" s="166"/>
+      <c r="L29" s="166"/>
+      <c r="M29" s="166"/>
+      <c r="N29" s="166"/>
+      <c r="O29" s="166"/>
+      <c r="P29" s="166"/>
+      <c r="Q29" s="166"/>
+      <c r="R29" s="166"/>
     </row>
     <row r="30" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A30" s="185"/>
-      <c r="B30" s="185"/>
-      <c r="C30" s="185"/>
-      <c r="D30" s="185"/>
-      <c r="E30" s="185"/>
-      <c r="F30" s="185"/>
-      <c r="G30" s="185"/>
-      <c r="H30" s="185"/>
-      <c r="I30" s="185"/>
-      <c r="J30" s="185"/>
+      <c r="A30" s="164"/>
+      <c r="B30" s="164"/>
+      <c r="C30" s="164"/>
+      <c r="D30" s="164"/>
+      <c r="E30" s="164"/>
+      <c r="F30" s="164"/>
+      <c r="G30" s="164"/>
+      <c r="H30" s="164"/>
+      <c r="I30" s="164"/>
+      <c r="J30" s="164"/>
       <c r="K30" s="96"/>
       <c r="L30" s="96"/>
       <c r="M30" s="96"/>
@@ -6648,16 +6648,16 @@
       <c r="R30" s="96"/>
     </row>
     <row r="31" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A31" s="185"/>
-      <c r="B31" s="185"/>
-      <c r="C31" s="185"/>
-      <c r="D31" s="185"/>
-      <c r="E31" s="185"/>
-      <c r="F31" s="185"/>
-      <c r="G31" s="185"/>
-      <c r="H31" s="185"/>
-      <c r="I31" s="185"/>
-      <c r="J31" s="185"/>
+      <c r="A31" s="164"/>
+      <c r="B31" s="164"/>
+      <c r="C31" s="164"/>
+      <c r="D31" s="164"/>
+      <c r="E31" s="164"/>
+      <c r="F31" s="164"/>
+      <c r="G31" s="164"/>
+      <c r="H31" s="164"/>
+      <c r="I31" s="164"/>
+      <c r="J31" s="164"/>
       <c r="K31" s="96"/>
       <c r="L31" s="96"/>
       <c r="M31" s="96"/>
@@ -6669,28 +6669,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="DF28:DV28"/>
-    <mergeCell ref="DW28:EM28"/>
-    <mergeCell ref="EN28:FD28"/>
-    <mergeCell ref="B26:R26"/>
-    <mergeCell ref="FE28:FU28"/>
-    <mergeCell ref="FV28:GL28"/>
-    <mergeCell ref="B29:R29"/>
-    <mergeCell ref="S28:X28"/>
-    <mergeCell ref="Y28:AO28"/>
-    <mergeCell ref="AP28:BF28"/>
-    <mergeCell ref="BG28:BW28"/>
-    <mergeCell ref="BX28:CN28"/>
-    <mergeCell ref="CO28:DE28"/>
-    <mergeCell ref="B28:R28"/>
-    <mergeCell ref="B18:R18"/>
-    <mergeCell ref="B20:R20"/>
-    <mergeCell ref="B21:R21"/>
-    <mergeCell ref="B22:R22"/>
-    <mergeCell ref="B23:R23"/>
-    <mergeCell ref="B19:R19"/>
     <mergeCell ref="B14:R14"/>
     <mergeCell ref="B15:R15"/>
     <mergeCell ref="A16:J16"/>
@@ -6704,6 +6682,28 @@
     <mergeCell ref="C1:F3"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
+    <mergeCell ref="B18:R18"/>
+    <mergeCell ref="B20:R20"/>
+    <mergeCell ref="B21:R21"/>
+    <mergeCell ref="B22:R22"/>
+    <mergeCell ref="B23:R23"/>
+    <mergeCell ref="B19:R19"/>
+    <mergeCell ref="B26:R26"/>
+    <mergeCell ref="FE28:FU28"/>
+    <mergeCell ref="FV28:GL28"/>
+    <mergeCell ref="B29:R29"/>
+    <mergeCell ref="S28:X28"/>
+    <mergeCell ref="Y28:AO28"/>
+    <mergeCell ref="AP28:BF28"/>
+    <mergeCell ref="BG28:BW28"/>
+    <mergeCell ref="BX28:CN28"/>
+    <mergeCell ref="CO28:DE28"/>
+    <mergeCell ref="B28:R28"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="DF28:DV28"/>
+    <mergeCell ref="DW28:EM28"/>
+    <mergeCell ref="EN28:FD28"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.196850393700787" right="0.196850393700787" top="0.39370078740157499" bottom="0" header="0" footer="0"/>
@@ -7258,10 +7258,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="186" t="s">
+      <c r="A1" s="198" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="186"/>
+      <c r="B1" s="198"/>
       <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
@@ -7288,8 +7288,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="186"/>
-      <c r="B2" s="186"/>
+      <c r="A2" s="198"/>
+      <c r="B2" s="198"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
       </c>
@@ -7328,14 +7328,14 @@
       <c r="D4" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="187" t="s">
+      <c r="E4" s="199" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="187"/>
-      <c r="G4" s="187"/>
-      <c r="H4" s="187"/>
-      <c r="I4" s="187"/>
-      <c r="J4" s="187"/>
+      <c r="F4" s="199"/>
+      <c r="G4" s="199"/>
+      <c r="H4" s="199"/>
+      <c r="I4" s="199"/>
+      <c r="J4" s="199"/>
     </row>
     <row r="5" spans="1:10" s="25" customFormat="1" ht="11.25">
       <c r="A5" s="102">
@@ -7350,14 +7350,14 @@
       <c r="D5" s="106" t="s">
         <v>180</v>
       </c>
-      <c r="E5" s="188" t="s">
+      <c r="E5" s="200" t="s">
         <v>183</v>
       </c>
-      <c r="F5" s="188"/>
-      <c r="G5" s="188"/>
-      <c r="H5" s="188"/>
-      <c r="I5" s="188"/>
-      <c r="J5" s="188"/>
+      <c r="F5" s="200"/>
+      <c r="G5" s="200"/>
+      <c r="H5" s="200"/>
+      <c r="I5" s="200"/>
+      <c r="J5" s="200"/>
     </row>
     <row r="6" spans="1:10" ht="12.75">
       <c r="A6" s="70">
@@ -7368,12 +7368,12 @@
       </c>
       <c r="C6" s="156"/>
       <c r="D6" s="156"/>
-      <c r="E6" s="189"/>
-      <c r="F6" s="190"/>
-      <c r="G6" s="190"/>
-      <c r="H6" s="190"/>
-      <c r="I6" s="190"/>
-      <c r="J6" s="191"/>
+      <c r="E6" s="201"/>
+      <c r="F6" s="202"/>
+      <c r="G6" s="202"/>
+      <c r="H6" s="202"/>
+      <c r="I6" s="202"/>
+      <c r="J6" s="203"/>
     </row>
     <row r="7" spans="1:10" ht="12.75">
       <c r="A7" s="71">
@@ -7384,12 +7384,12 @@
       </c>
       <c r="C7" s="156"/>
       <c r="D7" s="156"/>
-      <c r="E7" s="193"/>
-      <c r="F7" s="194"/>
-      <c r="G7" s="194"/>
-      <c r="H7" s="194"/>
-      <c r="I7" s="194"/>
-      <c r="J7" s="195"/>
+      <c r="E7" s="190"/>
+      <c r="F7" s="191"/>
+      <c r="G7" s="191"/>
+      <c r="H7" s="191"/>
+      <c r="I7" s="191"/>
+      <c r="J7" s="192"/>
     </row>
     <row r="8" spans="1:10" ht="12.75">
       <c r="A8" s="72">
@@ -7400,12 +7400,12 @@
       </c>
       <c r="C8" s="154"/>
       <c r="D8" s="154"/>
-      <c r="E8" s="196"/>
-      <c r="F8" s="197"/>
-      <c r="G8" s="197"/>
-      <c r="H8" s="197"/>
-      <c r="I8" s="197"/>
-      <c r="J8" s="197"/>
+      <c r="E8" s="193"/>
+      <c r="F8" s="194"/>
+      <c r="G8" s="194"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
+      <c r="J8" s="194"/>
     </row>
     <row r="9" spans="1:10" s="136" customFormat="1" ht="12.75">
       <c r="A9" s="73">
@@ -7416,12 +7416,12 @@
       </c>
       <c r="C9" s="154"/>
       <c r="D9" s="152"/>
-      <c r="E9" s="198"/>
-      <c r="F9" s="199"/>
-      <c r="G9" s="199"/>
-      <c r="H9" s="199"/>
-      <c r="I9" s="199"/>
-      <c r="J9" s="200"/>
+      <c r="E9" s="195"/>
+      <c r="F9" s="196"/>
+      <c r="G9" s="196"/>
+      <c r="H9" s="196"/>
+      <c r="I9" s="196"/>
+      <c r="J9" s="197"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="74">
@@ -7432,12 +7432,12 @@
       </c>
       <c r="C10" s="64"/>
       <c r="D10" s="37"/>
-      <c r="E10" s="201"/>
-      <c r="F10" s="202"/>
-      <c r="G10" s="202"/>
-      <c r="H10" s="202"/>
-      <c r="I10" s="202"/>
-      <c r="J10" s="203"/>
+      <c r="E10" s="187"/>
+      <c r="F10" s="188"/>
+      <c r="G10" s="188"/>
+      <c r="H10" s="188"/>
+      <c r="I10" s="188"/>
+      <c r="J10" s="189"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="75">
@@ -7448,12 +7448,12 @@
       </c>
       <c r="C11" s="64"/>
       <c r="D11" s="37"/>
-      <c r="E11" s="201"/>
-      <c r="F11" s="202"/>
-      <c r="G11" s="202"/>
-      <c r="H11" s="202"/>
-      <c r="I11" s="202"/>
-      <c r="J11" s="203"/>
+      <c r="E11" s="187"/>
+      <c r="F11" s="188"/>
+      <c r="G11" s="188"/>
+      <c r="H11" s="188"/>
+      <c r="I11" s="188"/>
+      <c r="J11" s="189"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="76">
@@ -7464,12 +7464,12 @@
       </c>
       <c r="C12" s="64"/>
       <c r="D12" s="37"/>
-      <c r="E12" s="201"/>
-      <c r="F12" s="202"/>
-      <c r="G12" s="202"/>
-      <c r="H12" s="202"/>
-      <c r="I12" s="202"/>
-      <c r="J12" s="203"/>
+      <c r="E12" s="187"/>
+      <c r="F12" s="188"/>
+      <c r="G12" s="188"/>
+      <c r="H12" s="188"/>
+      <c r="I12" s="188"/>
+      <c r="J12" s="189"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="77">
@@ -7480,12 +7480,12 @@
       </c>
       <c r="C13" s="64"/>
       <c r="D13" s="37"/>
-      <c r="E13" s="201"/>
-      <c r="F13" s="202"/>
-      <c r="G13" s="202"/>
-      <c r="H13" s="202"/>
-      <c r="I13" s="202"/>
-      <c r="J13" s="203"/>
+      <c r="E13" s="187"/>
+      <c r="F13" s="188"/>
+      <c r="G13" s="188"/>
+      <c r="H13" s="188"/>
+      <c r="I13" s="188"/>
+      <c r="J13" s="189"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="78">
@@ -7496,12 +7496,12 @@
       </c>
       <c r="C14" s="64"/>
       <c r="D14" s="37"/>
-      <c r="E14" s="201"/>
-      <c r="F14" s="202"/>
-      <c r="G14" s="202"/>
-      <c r="H14" s="202"/>
-      <c r="I14" s="202"/>
-      <c r="J14" s="203"/>
+      <c r="E14" s="187"/>
+      <c r="F14" s="188"/>
+      <c r="G14" s="188"/>
+      <c r="H14" s="188"/>
+      <c r="I14" s="188"/>
+      <c r="J14" s="189"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="37">
@@ -7512,12 +7512,12 @@
       </c>
       <c r="C15" s="64"/>
       <c r="D15" s="37"/>
-      <c r="E15" s="192"/>
-      <c r="F15" s="192"/>
-      <c r="G15" s="192"/>
-      <c r="H15" s="192"/>
-      <c r="I15" s="192"/>
-      <c r="J15" s="192"/>
+      <c r="E15" s="186"/>
+      <c r="F15" s="186"/>
+      <c r="G15" s="186"/>
+      <c r="H15" s="186"/>
+      <c r="I15" s="186"/>
+      <c r="J15" s="186"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="70">
@@ -7528,12 +7528,12 @@
       </c>
       <c r="C16" s="64"/>
       <c r="D16" s="37"/>
-      <c r="E16" s="192"/>
-      <c r="F16" s="192"/>
-      <c r="G16" s="192"/>
-      <c r="H16" s="192"/>
-      <c r="I16" s="192"/>
-      <c r="J16" s="192"/>
+      <c r="E16" s="186"/>
+      <c r="F16" s="186"/>
+      <c r="G16" s="186"/>
+      <c r="H16" s="186"/>
+      <c r="I16" s="186"/>
+      <c r="J16" s="186"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="71">
@@ -7544,12 +7544,12 @@
       </c>
       <c r="C17" s="64"/>
       <c r="D17" s="37"/>
-      <c r="E17" s="192"/>
-      <c r="F17" s="192"/>
-      <c r="G17" s="192"/>
-      <c r="H17" s="192"/>
-      <c r="I17" s="192"/>
-      <c r="J17" s="192"/>
+      <c r="E17" s="186"/>
+      <c r="F17" s="186"/>
+      <c r="G17" s="186"/>
+      <c r="H17" s="186"/>
+      <c r="I17" s="186"/>
+      <c r="J17" s="186"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="72">
@@ -7560,12 +7560,12 @@
       </c>
       <c r="C18" s="64"/>
       <c r="D18" s="37"/>
-      <c r="E18" s="192"/>
-      <c r="F18" s="192"/>
-      <c r="G18" s="192"/>
-      <c r="H18" s="192"/>
-      <c r="I18" s="192"/>
-      <c r="J18" s="192"/>
+      <c r="E18" s="186"/>
+      <c r="F18" s="186"/>
+      <c r="G18" s="186"/>
+      <c r="H18" s="186"/>
+      <c r="I18" s="186"/>
+      <c r="J18" s="186"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="73">
@@ -7576,12 +7576,12 @@
       </c>
       <c r="C19" s="64"/>
       <c r="D19" s="37"/>
-      <c r="E19" s="192"/>
-      <c r="F19" s="192"/>
-      <c r="G19" s="192"/>
-      <c r="H19" s="192"/>
-      <c r="I19" s="192"/>
-      <c r="J19" s="192"/>
+      <c r="E19" s="186"/>
+      <c r="F19" s="186"/>
+      <c r="G19" s="186"/>
+      <c r="H19" s="186"/>
+      <c r="I19" s="186"/>
+      <c r="J19" s="186"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="74">
@@ -7592,12 +7592,12 @@
       </c>
       <c r="C20" s="64"/>
       <c r="D20" s="37"/>
-      <c r="E20" s="192"/>
-      <c r="F20" s="192"/>
-      <c r="G20" s="192"/>
-      <c r="H20" s="192"/>
-      <c r="I20" s="192"/>
-      <c r="J20" s="192"/>
+      <c r="E20" s="186"/>
+      <c r="F20" s="186"/>
+      <c r="G20" s="186"/>
+      <c r="H20" s="186"/>
+      <c r="I20" s="186"/>
+      <c r="J20" s="186"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="75">
@@ -7608,12 +7608,12 @@
       </c>
       <c r="C21" s="64"/>
       <c r="D21" s="37"/>
-      <c r="E21" s="192"/>
-      <c r="F21" s="192"/>
-      <c r="G21" s="192"/>
-      <c r="H21" s="192"/>
-      <c r="I21" s="192"/>
-      <c r="J21" s="192"/>
+      <c r="E21" s="186"/>
+      <c r="F21" s="186"/>
+      <c r="G21" s="186"/>
+      <c r="H21" s="186"/>
+      <c r="I21" s="186"/>
+      <c r="J21" s="186"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="76">
@@ -7624,12 +7624,12 @@
       </c>
       <c r="C22" s="64"/>
       <c r="D22" s="37"/>
-      <c r="E22" s="192"/>
-      <c r="F22" s="192"/>
-      <c r="G22" s="192"/>
-      <c r="H22" s="192"/>
-      <c r="I22" s="192"/>
-      <c r="J22" s="192"/>
+      <c r="E22" s="186"/>
+      <c r="F22" s="186"/>
+      <c r="G22" s="186"/>
+      <c r="H22" s="186"/>
+      <c r="I22" s="186"/>
+      <c r="J22" s="186"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="77">
@@ -7640,12 +7640,12 @@
       </c>
       <c r="C23" s="64"/>
       <c r="D23" s="37"/>
-      <c r="E23" s="192"/>
-      <c r="F23" s="192"/>
-      <c r="G23" s="192"/>
-      <c r="H23" s="192"/>
-      <c r="I23" s="192"/>
-      <c r="J23" s="192"/>
+      <c r="E23" s="186"/>
+      <c r="F23" s="186"/>
+      <c r="G23" s="186"/>
+      <c r="H23" s="186"/>
+      <c r="I23" s="186"/>
+      <c r="J23" s="186"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="78">
@@ -7656,12 +7656,12 @@
       </c>
       <c r="C24" s="64"/>
       <c r="D24" s="37"/>
-      <c r="E24" s="192"/>
-      <c r="F24" s="192"/>
-      <c r="G24" s="192"/>
-      <c r="H24" s="192"/>
-      <c r="I24" s="192"/>
-      <c r="J24" s="192"/>
+      <c r="E24" s="186"/>
+      <c r="F24" s="186"/>
+      <c r="G24" s="186"/>
+      <c r="H24" s="186"/>
+      <c r="I24" s="186"/>
+      <c r="J24" s="186"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="37">
@@ -7672,12 +7672,12 @@
       </c>
       <c r="C25" s="64"/>
       <c r="D25" s="37"/>
-      <c r="E25" s="192"/>
-      <c r="F25" s="192"/>
-      <c r="G25" s="192"/>
-      <c r="H25" s="192"/>
-      <c r="I25" s="192"/>
-      <c r="J25" s="192"/>
+      <c r="E25" s="186"/>
+      <c r="F25" s="186"/>
+      <c r="G25" s="186"/>
+      <c r="H25" s="186"/>
+      <c r="I25" s="186"/>
+      <c r="J25" s="186"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="70">
@@ -7688,12 +7688,12 @@
       </c>
       <c r="C26" s="64"/>
       <c r="D26" s="37"/>
-      <c r="E26" s="192"/>
-      <c r="F26" s="192"/>
-      <c r="G26" s="192"/>
-      <c r="H26" s="192"/>
-      <c r="I26" s="192"/>
-      <c r="J26" s="192"/>
+      <c r="E26" s="186"/>
+      <c r="F26" s="186"/>
+      <c r="G26" s="186"/>
+      <c r="H26" s="186"/>
+      <c r="I26" s="186"/>
+      <c r="J26" s="186"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="71">
@@ -7704,12 +7704,12 @@
       </c>
       <c r="C27" s="64"/>
       <c r="D27" s="37"/>
-      <c r="E27" s="192"/>
-      <c r="F27" s="192"/>
-      <c r="G27" s="192"/>
-      <c r="H27" s="192"/>
-      <c r="I27" s="192"/>
-      <c r="J27" s="192"/>
+      <c r="E27" s="186"/>
+      <c r="F27" s="186"/>
+      <c r="G27" s="186"/>
+      <c r="H27" s="186"/>
+      <c r="I27" s="186"/>
+      <c r="J27" s="186"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="72">
@@ -7720,12 +7720,12 @@
       </c>
       <c r="C28" s="64"/>
       <c r="D28" s="37"/>
-      <c r="E28" s="192"/>
-      <c r="F28" s="192"/>
-      <c r="G28" s="192"/>
-      <c r="H28" s="192"/>
-      <c r="I28" s="192"/>
-      <c r="J28" s="192"/>
+      <c r="E28" s="186"/>
+      <c r="F28" s="186"/>
+      <c r="G28" s="186"/>
+      <c r="H28" s="186"/>
+      <c r="I28" s="186"/>
+      <c r="J28" s="186"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="73">
@@ -7736,12 +7736,12 @@
       </c>
       <c r="C29" s="64"/>
       <c r="D29" s="37"/>
-      <c r="E29" s="192"/>
-      <c r="F29" s="192"/>
-      <c r="G29" s="192"/>
-      <c r="H29" s="192"/>
-      <c r="I29" s="192"/>
-      <c r="J29" s="192"/>
+      <c r="E29" s="186"/>
+      <c r="F29" s="186"/>
+      <c r="G29" s="186"/>
+      <c r="H29" s="186"/>
+      <c r="I29" s="186"/>
+      <c r="J29" s="186"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="74">
@@ -7752,12 +7752,12 @@
       </c>
       <c r="C30" s="64"/>
       <c r="D30" s="37"/>
-      <c r="E30" s="192"/>
-      <c r="F30" s="192"/>
-      <c r="G30" s="192"/>
-      <c r="H30" s="192"/>
-      <c r="I30" s="192"/>
-      <c r="J30" s="192"/>
+      <c r="E30" s="186"/>
+      <c r="F30" s="186"/>
+      <c r="G30" s="186"/>
+      <c r="H30" s="186"/>
+      <c r="I30" s="186"/>
+      <c r="J30" s="186"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="75">
@@ -7768,12 +7768,12 @@
       </c>
       <c r="C31" s="64"/>
       <c r="D31" s="37"/>
-      <c r="E31" s="192"/>
-      <c r="F31" s="192"/>
-      <c r="G31" s="192"/>
-      <c r="H31" s="192"/>
-      <c r="I31" s="192"/>
-      <c r="J31" s="192"/>
+      <c r="E31" s="186"/>
+      <c r="F31" s="186"/>
+      <c r="G31" s="186"/>
+      <c r="H31" s="186"/>
+      <c r="I31" s="186"/>
+      <c r="J31" s="186"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="76">
@@ -7784,12 +7784,12 @@
       </c>
       <c r="C32" s="64"/>
       <c r="D32" s="37"/>
-      <c r="E32" s="192"/>
-      <c r="F32" s="192"/>
-      <c r="G32" s="192"/>
-      <c r="H32" s="192"/>
-      <c r="I32" s="192"/>
-      <c r="J32" s="192"/>
+      <c r="E32" s="186"/>
+      <c r="F32" s="186"/>
+      <c r="G32" s="186"/>
+      <c r="H32" s="186"/>
+      <c r="I32" s="186"/>
+      <c r="J32" s="186"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="77">
@@ -7800,12 +7800,12 @@
       </c>
       <c r="C33" s="64"/>
       <c r="D33" s="37"/>
-      <c r="E33" s="192"/>
-      <c r="F33" s="192"/>
-      <c r="G33" s="192"/>
-      <c r="H33" s="192"/>
-      <c r="I33" s="192"/>
-      <c r="J33" s="192"/>
+      <c r="E33" s="186"/>
+      <c r="F33" s="186"/>
+      <c r="G33" s="186"/>
+      <c r="H33" s="186"/>
+      <c r="I33" s="186"/>
+      <c r="J33" s="186"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="78">
@@ -7816,20 +7816,26 @@
       </c>
       <c r="C34" s="64"/>
       <c r="D34" s="37"/>
-      <c r="E34" s="192"/>
-      <c r="F34" s="192"/>
-      <c r="G34" s="192"/>
-      <c r="H34" s="192"/>
-      <c r="I34" s="192"/>
-      <c r="J34" s="192"/>
+      <c r="E34" s="186"/>
+      <c r="F34" s="186"/>
+      <c r="G34" s="186"/>
+      <c r="H34" s="186"/>
+      <c r="I34" s="186"/>
+      <c r="J34" s="186"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="E23:J23"/>
+    <mergeCell ref="E24:J24"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E10:J10"/>
     <mergeCell ref="E31:J31"/>
     <mergeCell ref="E32:J32"/>
     <mergeCell ref="E33:J33"/>
@@ -7846,17 +7852,11 @@
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="E13:J13"/>
     <mergeCell ref="E21:J21"/>
-    <mergeCell ref="E23:J23"/>
-    <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E30:J30"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
@@ -7901,10 +7901,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="186" t="s">
+      <c r="A1" s="198" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="186"/>
+      <c r="B1" s="198"/>
       <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
@@ -7935,8 +7935,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="186"/>
-      <c r="B2" s="186"/>
+      <c r="A2" s="198"/>
+      <c r="B2" s="198"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
       </c>
@@ -8545,12 +8545,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="186" t="s">
+      <c r="A1" s="198" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="186"/>
-      <c r="C1" s="186"/>
-      <c r="D1" s="186"/>
+      <c r="B1" s="198"/>
+      <c r="C1" s="198"/>
+      <c r="D1" s="198"/>
       <c r="E1" s="29" t="s">
         <v>1</v>
       </c>
@@ -8584,10 +8584,10 @@
       </c>
     </row>
     <row r="2" spans="1:15" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="186"/>
-      <c r="B2" s="186"/>
-      <c r="C2" s="186"/>
-      <c r="D2" s="186"/>
+      <c r="A2" s="198"/>
+      <c r="B2" s="198"/>
+      <c r="C2" s="198"/>
+      <c r="D2" s="198"/>
       <c r="E2" s="29" t="s">
         <v>2</v>
       </c>
@@ -9699,7 +9699,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="239" t="s">
+      <c r="A1" s="234" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="99"/>
@@ -9735,7 +9735,7 @@
       <c r="L1" s="47"/>
     </row>
     <row r="2" spans="1:12" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="240"/>
+      <c r="A2" s="235"/>
       <c r="B2" s="100"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
@@ -9784,15 +9784,15 @@
       <c r="E4" s="79" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="186" t="s">
+      <c r="F4" s="198" t="s">
         <v>127</v>
       </c>
-      <c r="G4" s="186"/>
-      <c r="H4" s="186" t="s">
+      <c r="G4" s="198"/>
+      <c r="H4" s="198" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="186"/>
-      <c r="J4" s="186"/>
+      <c r="I4" s="198"/>
+      <c r="J4" s="198"/>
     </row>
     <row r="5" spans="1:12" s="33" customFormat="1" ht="11.25">
       <c r="A5" s="32">
@@ -9802,8 +9802,8 @@
       <c r="C5" s="119"/>
       <c r="D5" s="119"/>
       <c r="E5" s="31"/>
-      <c r="F5" s="234"/>
-      <c r="G5" s="235"/>
+      <c r="F5" s="239"/>
+      <c r="G5" s="240"/>
       <c r="H5" s="236"/>
       <c r="I5" s="237"/>
       <c r="J5" s="238"/>
@@ -9816,8 +9816,8 @@
       <c r="C6" s="119"/>
       <c r="D6" s="119"/>
       <c r="E6" s="31"/>
-      <c r="F6" s="234"/>
-      <c r="G6" s="235"/>
+      <c r="F6" s="239"/>
+      <c r="G6" s="240"/>
       <c r="H6" s="236"/>
       <c r="I6" s="237"/>
       <c r="J6" s="238"/>
@@ -9830,8 +9830,8 @@
       <c r="C7" s="119"/>
       <c r="D7" s="119"/>
       <c r="E7" s="31"/>
-      <c r="F7" s="234"/>
-      <c r="G7" s="235"/>
+      <c r="F7" s="239"/>
+      <c r="G7" s="240"/>
       <c r="H7" s="236"/>
       <c r="I7" s="237"/>
       <c r="J7" s="238"/>
@@ -9844,8 +9844,8 @@
       <c r="C8" s="32"/>
       <c r="D8" s="32"/>
       <c r="E8" s="31"/>
-      <c r="F8" s="234"/>
-      <c r="G8" s="235"/>
+      <c r="F8" s="239"/>
+      <c r="G8" s="240"/>
       <c r="H8" s="236"/>
       <c r="I8" s="237"/>
       <c r="J8" s="238"/>
@@ -9858,8 +9858,8 @@
       <c r="C9" s="32"/>
       <c r="D9" s="32"/>
       <c r="E9" s="31"/>
-      <c r="F9" s="234"/>
-      <c r="G9" s="235"/>
+      <c r="F9" s="239"/>
+      <c r="G9" s="240"/>
       <c r="H9" s="236"/>
       <c r="I9" s="237"/>
       <c r="J9" s="238"/>
@@ -9872,8 +9872,8 @@
       <c r="C10" s="32"/>
       <c r="D10" s="32"/>
       <c r="E10" s="31"/>
-      <c r="F10" s="234"/>
-      <c r="G10" s="235"/>
+      <c r="F10" s="239"/>
+      <c r="G10" s="240"/>
       <c r="H10" s="236"/>
       <c r="I10" s="237"/>
       <c r="J10" s="238"/>
@@ -9886,8 +9886,8 @@
       <c r="C11" s="32"/>
       <c r="D11" s="32"/>
       <c r="E11" s="31"/>
-      <c r="F11" s="234"/>
-      <c r="G11" s="235"/>
+      <c r="F11" s="239"/>
+      <c r="G11" s="240"/>
       <c r="H11" s="236"/>
       <c r="I11" s="237"/>
       <c r="J11" s="238"/>
@@ -9900,8 +9900,8 @@
       <c r="C12" s="32"/>
       <c r="D12" s="32"/>
       <c r="E12" s="31"/>
-      <c r="F12" s="234"/>
-      <c r="G12" s="235"/>
+      <c r="F12" s="239"/>
+      <c r="G12" s="240"/>
       <c r="H12" s="236"/>
       <c r="I12" s="237"/>
       <c r="J12" s="238"/>
@@ -9914,8 +9914,8 @@
       <c r="C13" s="32"/>
       <c r="D13" s="32"/>
       <c r="E13" s="31"/>
-      <c r="F13" s="234"/>
-      <c r="G13" s="235"/>
+      <c r="F13" s="239"/>
+      <c r="G13" s="240"/>
       <c r="H13" s="236"/>
       <c r="I13" s="237"/>
       <c r="J13" s="238"/>
@@ -9928,8 +9928,8 @@
       <c r="C14" s="32"/>
       <c r="D14" s="32"/>
       <c r="E14" s="31"/>
-      <c r="F14" s="234"/>
-      <c r="G14" s="235"/>
+      <c r="F14" s="239"/>
+      <c r="G14" s="240"/>
       <c r="H14" s="236"/>
       <c r="I14" s="237"/>
       <c r="J14" s="238"/>
@@ -9937,12 +9937,11 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="23">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="F12:G12"/>
     <mergeCell ref="H11:J11"/>
     <mergeCell ref="H12:J12"/>
     <mergeCell ref="F10:G10"/>
@@ -9955,11 +9954,12 @@
     <mergeCell ref="H8:J8"/>
     <mergeCell ref="H9:J9"/>
     <mergeCell ref="H10:J10"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:J5"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E14">
@@ -9977,8 +9977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q1048236"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="D1" zoomScale="93" zoomScaleSheetLayoutView="93" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="D1" zoomScale="93" zoomScaleSheetLayoutView="93" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -10004,20 +10004,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="186" t="s">
+      <c r="A1" s="198" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="186"/>
-      <c r="C1" s="186"/>
-      <c r="D1" s="186"/>
+      <c r="B1" s="198"/>
+      <c r="C1" s="198"/>
+      <c r="D1" s="198"/>
       <c r="E1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="241" t="str">
+      <c r="F1" s="247" t="str">
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="G1" s="241"/>
+      <c r="G1" s="247"/>
       <c r="H1" s="26" t="s">
         <v>3</v>
       </c>
@@ -10035,28 +10035,28 @@
       <c r="L1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="245" t="str">
+      <c r="M1" s="241" t="str">
         <f>'Update History'!J1</f>
         <v>Tấn Đạt</v>
       </c>
-      <c r="N1" s="246"/>
-      <c r="O1" s="247"/>
+      <c r="N1" s="242"/>
+      <c r="O1" s="243"/>
       <c r="P1" s="47"/>
       <c r="Q1" s="47"/>
     </row>
     <row r="2" spans="1:17" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="186"/>
-      <c r="B2" s="186"/>
-      <c r="C2" s="186"/>
-      <c r="D2" s="186"/>
+      <c r="A2" s="198"/>
+      <c r="B2" s="198"/>
+      <c r="C2" s="198"/>
+      <c r="D2" s="198"/>
       <c r="E2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="241" t="str">
+      <c r="F2" s="247" t="str">
         <f>'Update History'!D2</f>
         <v>ASOFT-CRM</v>
       </c>
-      <c r="G2" s="241"/>
+      <c r="G2" s="247"/>
       <c r="H2" s="26" t="s">
         <v>49</v>
       </c>
@@ -10074,12 +10074,12 @@
       <c r="L2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="245" t="str">
+      <c r="M2" s="241" t="str">
         <f>'Update History'!J2</f>
         <v>06/02/2018</v>
       </c>
-      <c r="N2" s="246"/>
-      <c r="O2" s="247"/>
+      <c r="N2" s="242"/>
+      <c r="O2" s="243"/>
       <c r="P2" s="47"/>
       <c r="Q2" s="47"/>
     </row>
@@ -10143,17 +10143,17 @@
       <c r="F5" s="108" t="s">
         <v>166</v>
       </c>
-      <c r="G5" s="242" t="s">
-        <v>205</v>
-      </c>
-      <c r="H5" s="243"/>
-      <c r="I5" s="243"/>
-      <c r="J5" s="244"/>
+      <c r="G5" s="244" t="s">
+        <v>206</v>
+      </c>
+      <c r="H5" s="245"/>
+      <c r="I5" s="245"/>
+      <c r="J5" s="246"/>
       <c r="K5" s="159" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L5" s="159" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M5" s="102" t="s">
         <v>159</v>
@@ -10186,12 +10186,12 @@
       <c r="F6" s="108" t="s">
         <v>167</v>
       </c>
-      <c r="G6" s="242" t="s">
+      <c r="G6" s="244" t="s">
         <v>195</v>
       </c>
-      <c r="H6" s="243"/>
-      <c r="I6" s="243"/>
-      <c r="J6" s="244"/>
+      <c r="H6" s="245"/>
+      <c r="I6" s="245"/>
+      <c r="J6" s="246"/>
       <c r="K6" s="160" t="s">
         <v>130</v>
       </c>
@@ -10217,10 +10217,10 @@
       <c r="D7" s="109"/>
       <c r="E7" s="109"/>
       <c r="F7" s="108"/>
-      <c r="G7" s="242"/>
-      <c r="H7" s="243"/>
-      <c r="I7" s="243"/>
-      <c r="J7" s="244"/>
+      <c r="G7" s="244"/>
+      <c r="H7" s="245"/>
+      <c r="I7" s="245"/>
+      <c r="J7" s="246"/>
       <c r="K7" s="116"/>
       <c r="L7" s="116"/>
       <c r="M7" s="66"/>
@@ -10238,10 +10238,10 @@
       <c r="D8" s="109"/>
       <c r="E8" s="109"/>
       <c r="F8" s="108"/>
-      <c r="G8" s="242"/>
-      <c r="H8" s="243"/>
-      <c r="I8" s="243"/>
-      <c r="J8" s="244"/>
+      <c r="G8" s="244"/>
+      <c r="H8" s="245"/>
+      <c r="I8" s="245"/>
+      <c r="J8" s="246"/>
       <c r="K8" s="116"/>
       <c r="L8" s="116"/>
       <c r="M8" s="66"/>
@@ -10259,10 +10259,10 @@
       <c r="D9" s="109"/>
       <c r="E9" s="109"/>
       <c r="F9" s="108"/>
-      <c r="G9" s="242"/>
-      <c r="H9" s="243"/>
-      <c r="I9" s="243"/>
-      <c r="J9" s="244"/>
+      <c r="G9" s="244"/>
+      <c r="H9" s="245"/>
+      <c r="I9" s="245"/>
+      <c r="J9" s="246"/>
       <c r="K9" s="111"/>
       <c r="L9" s="111"/>
       <c r="M9" s="66"/>
@@ -10280,10 +10280,10 @@
       <c r="D10" s="109"/>
       <c r="E10" s="109"/>
       <c r="F10" s="108"/>
-      <c r="G10" s="242"/>
-      <c r="H10" s="243"/>
-      <c r="I10" s="243"/>
-      <c r="J10" s="244"/>
+      <c r="G10" s="244"/>
+      <c r="H10" s="245"/>
+      <c r="I10" s="245"/>
+      <c r="J10" s="246"/>
       <c r="K10" s="116"/>
       <c r="L10" s="116"/>
       <c r="M10" s="66"/>
@@ -10301,10 +10301,10 @@
       <c r="D11" s="109"/>
       <c r="E11" s="109"/>
       <c r="F11" s="108"/>
-      <c r="G11" s="242"/>
-      <c r="H11" s="243"/>
-      <c r="I11" s="243"/>
-      <c r="J11" s="244"/>
+      <c r="G11" s="244"/>
+      <c r="H11" s="245"/>
+      <c r="I11" s="245"/>
+      <c r="J11" s="246"/>
       <c r="K11" s="111"/>
       <c r="L11" s="111"/>
       <c r="M11" s="66"/>
@@ -10320,10 +10320,10 @@
       <c r="D12" s="109"/>
       <c r="E12" s="109"/>
       <c r="F12" s="108"/>
-      <c r="G12" s="242"/>
-      <c r="H12" s="243"/>
-      <c r="I12" s="243"/>
-      <c r="J12" s="244"/>
+      <c r="G12" s="244"/>
+      <c r="H12" s="245"/>
+      <c r="I12" s="245"/>
+      <c r="J12" s="246"/>
       <c r="K12" s="111"/>
       <c r="L12" s="111"/>
       <c r="M12" s="66"/>
@@ -10338,12 +10338,6 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="14">
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="A1:D2"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="F2:G2"/>
@@ -10352,6 +10346,12 @@
     <mergeCell ref="G9:J9"/>
     <mergeCell ref="G5:J5"/>
     <mergeCell ref="G4:J4"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="M1048236:M1048576"/>
@@ -10380,7 +10380,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T115"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A22" zoomScale="106" zoomScaleSheetLayoutView="106" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A22" zoomScale="106" zoomScaleSheetLayoutView="106" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -10397,10 +10397,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="12" customHeight="1">
-      <c r="A1" s="186" t="s">
+      <c r="A1" s="198" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="186"/>
+      <c r="B1" s="198"/>
       <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
@@ -10431,8 +10431,8 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="12" customHeight="1">
-      <c r="A2" s="186"/>
-      <c r="B2" s="186"/>
+      <c r="A2" s="198"/>
+      <c r="B2" s="198"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
       </c>
@@ -10647,7 +10647,7 @@
     </row>
     <row r="16" spans="1:13" ht="12" customHeight="1">
       <c r="B16" s="40" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C16" s="40"/>
       <c r="D16" s="40"/>
@@ -12162,10 +12162,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="186" t="s">
+      <c r="A1" s="198" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="186"/>
+      <c r="B1" s="198"/>
       <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
@@ -12196,8 +12196,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="186"/>
-      <c r="B2" s="186"/>
+      <c r="A2" s="198"/>
+      <c r="B2" s="198"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
       </c>
